--- a/Files/Raw_Files/Design_Q_ATS.xlsx
+++ b/Files/Raw_Files/Design_Q_ATS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00AB3F0-604C-A243-AC82-10F0B014DB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1D71F9-AE08-FB42-A1F0-AC98E08738E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5 Pisos" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="66">
   <si>
     <t>X</t>
   </si>
@@ -1114,10 +1114,52 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1138,52 +1180,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1834,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:CF354"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="DE8" sqref="DE8"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E327" sqref="E327:E354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1846,299 +1846,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:84">
-      <c r="J1" s="64">
-        <v>1</v>
-      </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="64">
-        <v>2</v>
-      </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="64">
+      <c r="J1" s="78">
+        <v>1</v>
+      </c>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="78">
+        <v>2</v>
+      </c>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="78">
         <v>3</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="64">
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="78">
         <v>4</v>
       </c>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="64">
-        <v>5</v>
-      </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="64">
-        <v>6</v>
-      </c>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="64">
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="78">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="78">
+        <v>6</v>
+      </c>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="78">
         <v>7</v>
       </c>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="64">
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="78">
         <v>8</v>
       </c>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="64">
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="78">
         <v>9</v>
       </c>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="64">
-        <v>10</v>
-      </c>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="66"/>
-      <c r="BH1" s="64">
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="78">
+        <v>10</v>
+      </c>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="78">
         <v>11</v>
       </c>
-      <c r="BI1" s="65"/>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="66"/>
-      <c r="BM1" s="64">
+      <c r="BI1" s="79"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="78">
         <v>12</v>
       </c>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="66"/>
-      <c r="BR1" s="64">
+      <c r="BN1" s="79"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="79"/>
+      <c r="BQ1" s="80"/>
+      <c r="BR1" s="78">
         <v>13</v>
       </c>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="66"/>
-      <c r="BW1" s="64">
+      <c r="BS1" s="79"/>
+      <c r="BT1" s="79"/>
+      <c r="BU1" s="79"/>
+      <c r="BV1" s="80"/>
+      <c r="BW1" s="78">
         <v>14</v>
       </c>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="65"/>
-      <c r="CA1" s="66"/>
-      <c r="CB1" s="64">
-        <v>15</v>
-      </c>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="65"/>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="66"/>
+      <c r="BX1" s="79"/>
+      <c r="BY1" s="79"/>
+      <c r="BZ1" s="79"/>
+      <c r="CA1" s="80"/>
+      <c r="CB1" s="78">
+        <v>15</v>
+      </c>
+      <c r="CC1" s="79"/>
+      <c r="CD1" s="79"/>
+      <c r="CE1" s="79"/>
+      <c r="CF1" s="80"/>
     </row>
     <row r="2" spans="2:84" ht="16" thickBot="1">
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="68"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="67"/>
-      <c r="BI2" s="68"/>
-      <c r="BJ2" s="68"/>
-      <c r="BK2" s="68"/>
-      <c r="BL2" s="69"/>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="68"/>
-      <c r="BO2" s="68"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="69"/>
-      <c r="BR2" s="67"/>
-      <c r="BS2" s="68"/>
-      <c r="BT2" s="68"/>
-      <c r="BU2" s="68"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="67"/>
-      <c r="BX2" s="68"/>
-      <c r="BY2" s="68"/>
-      <c r="BZ2" s="68"/>
-      <c r="CA2" s="69"/>
-      <c r="CB2" s="67"/>
-      <c r="CC2" s="68"/>
-      <c r="CD2" s="68"/>
-      <c r="CE2" s="68"/>
-      <c r="CF2" s="69"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="81"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="81"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="83"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="82"/>
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="82"/>
+      <c r="BQ2" s="83"/>
+      <c r="BR2" s="81"/>
+      <c r="BS2" s="82"/>
+      <c r="BT2" s="82"/>
+      <c r="BU2" s="82"/>
+      <c r="BV2" s="83"/>
+      <c r="BW2" s="81"/>
+      <c r="BX2" s="82"/>
+      <c r="BY2" s="82"/>
+      <c r="BZ2" s="82"/>
+      <c r="CA2" s="83"/>
+      <c r="CB2" s="81"/>
+      <c r="CC2" s="82"/>
+      <c r="CD2" s="82"/>
+      <c r="CE2" s="82"/>
+      <c r="CF2" s="83"/>
     </row>
     <row r="3" spans="2:84" ht="16" customHeight="1" thickBot="1">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="J3" s="70" t="s">
+      <c r="C3" s="85"/>
+      <c r="J3" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="80" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="70" t="s">
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="70" t="s">
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="70" t="s">
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="70" t="s">
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="70" t="s">
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="70" t="s">
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="70" t="s">
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="70" t="s">
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="74"/>
+      <c r="BC3" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="70" t="s">
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="70" t="s">
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="73"/>
+      <c r="BL3" s="74"/>
+      <c r="BM3" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="70" t="s">
+      <c r="BN3" s="73"/>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="74"/>
+      <c r="BR3" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="72"/>
-      <c r="BW3" s="70" t="s">
+      <c r="BS3" s="73"/>
+      <c r="BT3" s="73"/>
+      <c r="BU3" s="73"/>
+      <c r="BV3" s="74"/>
+      <c r="BW3" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="BX3" s="71"/>
-      <c r="BY3" s="71"/>
-      <c r="BZ3" s="71"/>
-      <c r="CA3" s="72"/>
-      <c r="CB3" s="70" t="s">
+      <c r="BX3" s="73"/>
+      <c r="BY3" s="73"/>
+      <c r="BZ3" s="73"/>
+      <c r="CA3" s="74"/>
+      <c r="CB3" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="71"/>
-      <c r="CE3" s="71"/>
-      <c r="CF3" s="72"/>
+      <c r="CC3" s="73"/>
+      <c r="CD3" s="73"/>
+      <c r="CE3" s="73"/>
+      <c r="CF3" s="74"/>
     </row>
     <row r="4" spans="2:84" ht="27" customHeight="1" thickBot="1">
       <c r="B4" s="56" t="s">
@@ -2147,169 +2147,169 @@
       <c r="C4" s="56">
         <v>40.36</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78" t="s">
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="78" t="s">
+      <c r="P4" s="70"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="75" t="s">
+      <c r="T4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="76"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="78" t="s">
+      <c r="U4" s="70"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="73" t="s">
+      <c r="X4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="75" t="s">
+      <c r="Y4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="78" t="s">
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AC4" s="73" t="s">
+      <c r="AC4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="75" t="s">
+      <c r="AD4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="78" t="s">
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="73" t="s">
+      <c r="AH4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="AI4" s="75" t="s">
+      <c r="AI4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="78" t="s">
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AM4" s="73" t="s">
+      <c r="AM4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="AN4" s="75" t="s">
+      <c r="AN4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="78" t="s">
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" s="73" t="s">
+      <c r="AR4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="AS4" s="75" t="s">
+      <c r="AS4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="78" t="s">
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AW4" s="73" t="s">
+      <c r="AW4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="AX4" s="75" t="s">
+      <c r="AX4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="78" t="s">
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="BB4" s="73" t="s">
+      <c r="BB4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="BC4" s="75" t="s">
+      <c r="BC4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="78" t="s">
+      <c r="BD4" s="70"/>
+      <c r="BE4" s="71"/>
+      <c r="BF4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="BG4" s="73" t="s">
+      <c r="BG4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="BH4" s="75" t="s">
+      <c r="BH4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="BI4" s="76"/>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="78" t="s">
+      <c r="BI4" s="70"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="BL4" s="73" t="s">
+      <c r="BL4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="BM4" s="75" t="s">
+      <c r="BM4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="BN4" s="76"/>
-      <c r="BO4" s="77"/>
-      <c r="BP4" s="78" t="s">
+      <c r="BN4" s="70"/>
+      <c r="BO4" s="71"/>
+      <c r="BP4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="BQ4" s="73" t="s">
+      <c r="BQ4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="BR4" s="75" t="s">
+      <c r="BR4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="BS4" s="76"/>
-      <c r="BT4" s="77"/>
-      <c r="BU4" s="78" t="s">
+      <c r="BS4" s="70"/>
+      <c r="BT4" s="71"/>
+      <c r="BU4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="BV4" s="73" t="s">
+      <c r="BV4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="BW4" s="75" t="s">
+      <c r="BW4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="BX4" s="76"/>
-      <c r="BY4" s="77"/>
-      <c r="BZ4" s="78" t="s">
+      <c r="BX4" s="70"/>
+      <c r="BY4" s="71"/>
+      <c r="BZ4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="CA4" s="73" t="s">
+      <c r="CA4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="CB4" s="75" t="s">
+      <c r="CB4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="CC4" s="76"/>
-      <c r="CD4" s="77"/>
-      <c r="CE4" s="78" t="s">
+      <c r="CC4" s="70"/>
+      <c r="CD4" s="71"/>
+      <c r="CE4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="CF4" s="73" t="s">
+      <c r="CF4" s="67" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2326,8 +2326,8 @@
       <c r="L5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="74"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="68"/>
       <c r="O5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2337,8 +2337,8 @@
       <c r="Q5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="79"/>
-      <c r="S5" s="74"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2348,8 @@
       <c r="V5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="79"/>
-      <c r="X5" s="74"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="68"/>
       <c r="Y5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2359,8 +2359,8 @@
       <c r="AA5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="74"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="68"/>
       <c r="AD5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2370,8 +2370,8 @@
       <c r="AF5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="74"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="68"/>
       <c r="AI5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2381,8 +2381,8 @@
       <c r="AK5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="74"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="68"/>
       <c r="AN5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2392,8 +2392,8 @@
       <c r="AP5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="74"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="68"/>
       <c r="AS5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2403,8 +2403,8 @@
       <c r="AU5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="74"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="68"/>
       <c r="AX5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2414,8 +2414,8 @@
       <c r="AZ5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BA5" s="79"/>
-      <c r="BB5" s="74"/>
+      <c r="BA5" s="66"/>
+      <c r="BB5" s="68"/>
       <c r="BC5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2425,8 +2425,8 @@
       <c r="BE5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BF5" s="79"/>
-      <c r="BG5" s="74"/>
+      <c r="BF5" s="66"/>
+      <c r="BG5" s="68"/>
       <c r="BH5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2436,8 +2436,8 @@
       <c r="BJ5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BK5" s="79"/>
-      <c r="BL5" s="74"/>
+      <c r="BK5" s="66"/>
+      <c r="BL5" s="68"/>
       <c r="BM5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2447,8 +2447,8 @@
       <c r="BO5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="79"/>
-      <c r="BQ5" s="74"/>
+      <c r="BP5" s="66"/>
+      <c r="BQ5" s="68"/>
       <c r="BR5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2458,8 +2458,8 @@
       <c r="BT5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BU5" s="79"/>
-      <c r="BV5" s="74"/>
+      <c r="BU5" s="66"/>
+      <c r="BV5" s="68"/>
       <c r="BW5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2469,8 +2469,8 @@
       <c r="BY5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BZ5" s="79"/>
-      <c r="CA5" s="74"/>
+      <c r="BZ5" s="66"/>
+      <c r="CA5" s="68"/>
       <c r="CB5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2480,8 +2480,8 @@
       <c r="CD5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="79"/>
-      <c r="CF5" s="74"/>
+      <c r="CE5" s="66"/>
+      <c r="CF5" s="68"/>
     </row>
     <row r="6" spans="2:84">
       <c r="I6" s="6">
@@ -4171,10 +4171,10 @@
       </c>
     </row>
     <row r="15" spans="2:84" ht="14.5" customHeight="1">
-      <c r="D15" s="83">
-        <v>1</v>
-      </c>
-      <c r="E15" s="83" t="s">
+      <c r="D15" s="62">
+        <v>1</v>
+      </c>
+      <c r="E15" s="62" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="32">
@@ -4416,8 +4416,8 @@
       </c>
     </row>
     <row r="16" spans="2:84" ht="14.5" customHeight="1">
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="37">
         <v>1.2</v>
       </c>
@@ -4657,8 +4657,8 @@
       </c>
     </row>
     <row r="17" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="37">
         <v>1.3</v>
       </c>
@@ -4898,8 +4898,8 @@
       </c>
     </row>
     <row r="18" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="37">
         <v>1.4</v>
       </c>
@@ -5139,8 +5139,8 @@
       </c>
     </row>
     <row r="19" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="37">
         <v>2.1</v>
       </c>
@@ -5380,8 +5380,8 @@
       </c>
     </row>
     <row r="20" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="37">
         <v>2.2000000000000002</v>
       </c>
@@ -5621,8 +5621,8 @@
       </c>
     </row>
     <row r="21" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="37">
         <v>3.1</v>
       </c>
@@ -5862,8 +5862,8 @@
       </c>
     </row>
     <row r="22" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="37">
         <v>3.2</v>
       </c>
@@ -6103,8 +6103,8 @@
       </c>
     </row>
     <row r="23" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="37">
         <v>4.0999999999999996</v>
       </c>
@@ -6344,8 +6344,8 @@
       </c>
     </row>
     <row r="24" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="37">
         <v>4.2</v>
       </c>
@@ -6585,8 +6585,8 @@
       </c>
     </row>
     <row r="25" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="37">
         <v>4.3</v>
       </c>
@@ -6826,8 +6826,8 @@
       </c>
     </row>
     <row r="26" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="37">
         <v>4.4000000000000004</v>
       </c>
@@ -7067,8 +7067,8 @@
       </c>
     </row>
     <row r="27" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="37">
         <v>5.0999999999999996</v>
       </c>
@@ -7308,8 +7308,8 @@
       </c>
     </row>
     <row r="28" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="37">
         <v>6.1</v>
       </c>
@@ -7549,8 +7549,8 @@
       </c>
     </row>
     <row r="29" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="37">
         <v>6.2</v>
       </c>
@@ -7790,8 +7790,8 @@
       </c>
     </row>
     <row r="30" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="37">
         <v>6.3</v>
       </c>
@@ -8031,8 +8031,8 @@
       </c>
     </row>
     <row r="31" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="37">
         <v>6.4</v>
       </c>
@@ -8272,8 +8272,8 @@
       </c>
     </row>
     <row r="32" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="37">
         <v>6.5</v>
       </c>
@@ -8513,8 +8513,8 @@
       </c>
     </row>
     <row r="33" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="37">
         <v>6.6</v>
       </c>
@@ -8754,8 +8754,8 @@
       </c>
     </row>
     <row r="34" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="37">
         <v>7.1</v>
       </c>
@@ -8995,8 +8995,8 @@
       </c>
     </row>
     <row r="35" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="37">
         <v>7.2</v>
       </c>
@@ -9236,8 +9236,8 @@
       </c>
     </row>
     <row r="36" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
       <c r="F36" s="37">
         <v>8.1</v>
       </c>
@@ -9477,8 +9477,8 @@
       </c>
     </row>
     <row r="37" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
       <c r="F37" s="37">
         <v>8.1999999999999993</v>
       </c>
@@ -9718,8 +9718,8 @@
       </c>
     </row>
     <row r="38" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
       <c r="F38" s="37">
         <v>8.3000000000000007</v>
       </c>
@@ -9959,8 +9959,8 @@
       </c>
     </row>
     <row r="39" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="37">
         <v>8.4</v>
       </c>
@@ -10200,8 +10200,8 @@
       </c>
     </row>
     <row r="40" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
       <c r="F40" s="37">
         <v>8.5</v>
       </c>
@@ -10441,8 +10441,8 @@
       </c>
     </row>
     <row r="41" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="37">
         <v>8.6</v>
       </c>
@@ -10682,8 +10682,8 @@
       </c>
     </row>
     <row r="42" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
       <c r="F42" s="37">
         <v>9.1</v>
       </c>
@@ -10923,8 +10923,8 @@
       </c>
     </row>
     <row r="43" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
       <c r="F43" s="37">
         <v>10.1</v>
       </c>
@@ -11164,8 +11164,8 @@
       </c>
     </row>
     <row r="44" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
       <c r="F44" s="37">
         <v>10.199999999999999</v>
       </c>
@@ -11405,8 +11405,8 @@
       </c>
     </row>
     <row r="45" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
       <c r="F45" s="37">
         <v>10.3</v>
       </c>
@@ -11646,8 +11646,8 @@
       </c>
     </row>
     <row r="46" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
       <c r="F46" s="37">
         <v>10.4</v>
       </c>
@@ -11887,8 +11887,8 @@
       </c>
     </row>
     <row r="47" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="37">
         <v>11.1</v>
       </c>
@@ -12128,8 +12128,8 @@
       </c>
     </row>
     <row r="48" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
       <c r="F48" s="37">
         <v>11.2</v>
       </c>
@@ -12369,8 +12369,8 @@
       </c>
     </row>
     <row r="49" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="37">
         <v>12.1</v>
       </c>
@@ -12610,8 +12610,8 @@
       </c>
     </row>
     <row r="50" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
       <c r="F50" s="37">
         <v>12.2</v>
       </c>
@@ -12851,8 +12851,8 @@
       </c>
     </row>
     <row r="51" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="37">
         <v>13.1</v>
       </c>
@@ -13092,8 +13092,8 @@
       </c>
     </row>
     <row r="52" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="37">
         <v>13.2</v>
       </c>
@@ -13333,8 +13333,8 @@
       </c>
     </row>
     <row r="53" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="37">
         <v>13.3</v>
       </c>
@@ -13574,8 +13574,8 @@
       </c>
     </row>
     <row r="54" spans="4:84" ht="15" customHeight="1" thickBot="1">
-      <c r="D54" s="84"/>
-      <c r="E54" s="85"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="64"/>
       <c r="F54" s="41">
         <v>13.4</v>
       </c>
@@ -13815,8 +13815,8 @@
       </c>
     </row>
     <row r="55" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D55" s="84"/>
-      <c r="E55" s="83" t="s">
+      <c r="D55" s="63"/>
+      <c r="E55" s="62" t="s">
         <v>1</v>
       </c>
       <c r="F55" s="45" t="s">
@@ -14058,8 +14058,8 @@
       </c>
     </row>
     <row r="56" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
       <c r="F56" s="37" t="s">
         <v>3</v>
       </c>
@@ -14299,8 +14299,8 @@
       </c>
     </row>
     <row r="57" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
       <c r="F57" s="37" t="s">
         <v>24</v>
       </c>
@@ -14540,8 +14540,8 @@
       </c>
     </row>
     <row r="58" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
       <c r="F58" s="37" t="s">
         <v>25</v>
       </c>
@@ -14781,8 +14781,8 @@
       </c>
     </row>
     <row r="59" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
       <c r="F59" s="37" t="s">
         <v>26</v>
       </c>
@@ -15022,8 +15022,8 @@
       </c>
     </row>
     <row r="60" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
       <c r="F60" s="37" t="s">
         <v>27</v>
       </c>
@@ -15263,8 +15263,8 @@
       </c>
     </row>
     <row r="61" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
       <c r="F61" s="37" t="s">
         <v>4</v>
       </c>
@@ -15504,8 +15504,8 @@
       </c>
     </row>
     <row r="62" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
       <c r="F62" s="37" t="s">
         <v>5</v>
       </c>
@@ -15745,8 +15745,8 @@
       </c>
     </row>
     <row r="63" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
       <c r="F63" s="37" t="s">
         <v>6</v>
       </c>
@@ -15986,8 +15986,8 @@
       </c>
     </row>
     <row r="64" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
       <c r="F64" s="37" t="s">
         <v>7</v>
       </c>
@@ -16227,8 +16227,8 @@
       </c>
     </row>
     <row r="65" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
       <c r="F65" s="37" t="s">
         <v>28</v>
       </c>
@@ -16468,8 +16468,8 @@
       </c>
     </row>
     <row r="66" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
       <c r="F66" s="37" t="s">
         <v>29</v>
       </c>
@@ -16709,8 +16709,8 @@
       </c>
     </row>
     <row r="67" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
       <c r="F67" s="37" t="s">
         <v>8</v>
       </c>
@@ -16950,8 +16950,8 @@
       </c>
     </row>
     <row r="68" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
       <c r="F68" s="37" t="s">
         <v>9</v>
       </c>
@@ -17191,8 +17191,8 @@
       </c>
     </row>
     <row r="69" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
       <c r="F69" s="37" t="s">
         <v>10</v>
       </c>
@@ -17432,8 +17432,8 @@
       </c>
     </row>
     <row r="70" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
       <c r="F70" s="37" t="s">
         <v>11</v>
       </c>
@@ -17673,8 +17673,8 @@
       </c>
     </row>
     <row r="71" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
       <c r="F71" s="37" t="s">
         <v>12</v>
       </c>
@@ -17914,8 +17914,8 @@
       </c>
     </row>
     <row r="72" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
       <c r="F72" s="37" t="s">
         <v>30</v>
       </c>
@@ -18155,8 +18155,8 @@
       </c>
     </row>
     <row r="73" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
       <c r="F73" s="37" t="s">
         <v>31</v>
       </c>
@@ -18396,8 +18396,8 @@
       </c>
     </row>
     <row r="74" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
       <c r="F74" s="37" t="s">
         <v>32</v>
       </c>
@@ -18637,8 +18637,8 @@
       </c>
     </row>
     <row r="75" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
       <c r="F75" s="37" t="s">
         <v>13</v>
       </c>
@@ -18878,8 +18878,8 @@
       </c>
     </row>
     <row r="76" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
       <c r="F76" s="37" t="s">
         <v>14</v>
       </c>
@@ -19119,8 +19119,8 @@
       </c>
     </row>
     <row r="77" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
       <c r="F77" s="37" t="s">
         <v>15</v>
       </c>
@@ -19360,8 +19360,8 @@
       </c>
     </row>
     <row r="78" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
       <c r="F78" s="37" t="s">
         <v>16</v>
       </c>
@@ -19601,8 +19601,8 @@
       </c>
     </row>
     <row r="79" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
       <c r="F79" s="37" t="s">
         <v>33</v>
       </c>
@@ -19842,8 +19842,8 @@
       </c>
     </row>
     <row r="80" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
       <c r="F80" s="37" t="s">
         <v>34</v>
       </c>
@@ -20083,8 +20083,8 @@
       </c>
     </row>
     <row r="81" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D81" s="84"/>
-      <c r="E81" s="84"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
       <c r="F81" s="37" t="s">
         <v>35</v>
       </c>
@@ -20324,8 +20324,8 @@
       </c>
     </row>
     <row r="82" spans="4:84" ht="14.5" customHeight="1" thickBot="1">
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
       <c r="F82" s="41" t="s">
         <v>36</v>
       </c>
@@ -20565,10 +20565,10 @@
       </c>
     </row>
     <row r="83" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D83" s="83">
-        <v>2</v>
-      </c>
-      <c r="E83" s="83" t="s">
+      <c r="D83" s="62">
+        <v>2</v>
+      </c>
+      <c r="E83" s="62" t="s">
         <v>0</v>
       </c>
       <c r="F83" s="45">
@@ -20810,8 +20810,8 @@
       </c>
     </row>
     <row r="84" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
       <c r="F84" s="37">
         <v>1.2</v>
       </c>
@@ -21051,8 +21051,8 @@
       </c>
     </row>
     <row r="85" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
       <c r="F85" s="37">
         <v>1.3</v>
       </c>
@@ -21292,8 +21292,8 @@
       </c>
     </row>
     <row r="86" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
       <c r="F86" s="37">
         <v>1.4</v>
       </c>
@@ -21533,8 +21533,8 @@
       </c>
     </row>
     <row r="87" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D87" s="84"/>
-      <c r="E87" s="84"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
       <c r="F87" s="37">
         <v>2.1</v>
       </c>
@@ -21774,8 +21774,8 @@
       </c>
     </row>
     <row r="88" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D88" s="84"/>
-      <c r="E88" s="84"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
       <c r="F88" s="37">
         <v>2.2000000000000002</v>
       </c>
@@ -22015,8 +22015,8 @@
       </c>
     </row>
     <row r="89" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D89" s="84"/>
-      <c r="E89" s="84"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
       <c r="F89" s="37">
         <v>3.1</v>
       </c>
@@ -22256,8 +22256,8 @@
       </c>
     </row>
     <row r="90" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D90" s="84"/>
-      <c r="E90" s="84"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
       <c r="F90" s="37">
         <v>3.2</v>
       </c>
@@ -22497,8 +22497,8 @@
       </c>
     </row>
     <row r="91" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D91" s="84"/>
-      <c r="E91" s="84"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
       <c r="F91" s="37">
         <v>4.0999999999999996</v>
       </c>
@@ -22738,8 +22738,8 @@
       </c>
     </row>
     <row r="92" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
       <c r="F92" s="37">
         <v>4.2</v>
       </c>
@@ -22979,8 +22979,8 @@
       </c>
     </row>
     <row r="93" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
       <c r="F93" s="37">
         <v>4.3</v>
       </c>
@@ -23220,8 +23220,8 @@
       </c>
     </row>
     <row r="94" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="63"/>
       <c r="F94" s="37">
         <v>4.4000000000000004</v>
       </c>
@@ -23461,8 +23461,8 @@
       </c>
     </row>
     <row r="95" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D95" s="84"/>
-      <c r="E95" s="84"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
       <c r="F95" s="37">
         <v>5.0999999999999996</v>
       </c>
@@ -23702,8 +23702,8 @@
       </c>
     </row>
     <row r="96" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
       <c r="F96" s="37">
         <v>6.1</v>
       </c>
@@ -23943,8 +23943,8 @@
       </c>
     </row>
     <row r="97" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D97" s="84"/>
-      <c r="E97" s="84"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
       <c r="F97" s="37">
         <v>6.2</v>
       </c>
@@ -24184,8 +24184,8 @@
       </c>
     </row>
     <row r="98" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D98" s="84"/>
-      <c r="E98" s="84"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
       <c r="F98" s="37">
         <v>6.3</v>
       </c>
@@ -24425,8 +24425,8 @@
       </c>
     </row>
     <row r="99" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D99" s="84"/>
-      <c r="E99" s="84"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
       <c r="F99" s="37">
         <v>6.4</v>
       </c>
@@ -24666,8 +24666,8 @@
       </c>
     </row>
     <row r="100" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D100" s="84"/>
-      <c r="E100" s="84"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
       <c r="F100" s="37">
         <v>6.5</v>
       </c>
@@ -24907,8 +24907,8 @@
       </c>
     </row>
     <row r="101" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D101" s="84"/>
-      <c r="E101" s="84"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
       <c r="F101" s="37">
         <v>6.6</v>
       </c>
@@ -25148,8 +25148,8 @@
       </c>
     </row>
     <row r="102" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D102" s="84"/>
-      <c r="E102" s="84"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="63"/>
       <c r="F102" s="37">
         <v>7.1</v>
       </c>
@@ -25389,8 +25389,8 @@
       </c>
     </row>
     <row r="103" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D103" s="84"/>
-      <c r="E103" s="84"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
       <c r="F103" s="37">
         <v>7.2</v>
       </c>
@@ -25630,8 +25630,8 @@
       </c>
     </row>
     <row r="104" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D104" s="84"/>
-      <c r="E104" s="84"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
       <c r="F104" s="37">
         <v>8.1</v>
       </c>
@@ -25871,8 +25871,8 @@
       </c>
     </row>
     <row r="105" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D105" s="84"/>
-      <c r="E105" s="84"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
       <c r="F105" s="37">
         <v>8.1999999999999993</v>
       </c>
@@ -26112,8 +26112,8 @@
       </c>
     </row>
     <row r="106" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="63"/>
       <c r="F106" s="37">
         <v>8.3000000000000007</v>
       </c>
@@ -26353,8 +26353,8 @@
       </c>
     </row>
     <row r="107" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D107" s="84"/>
-      <c r="E107" s="84"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
       <c r="F107" s="37">
         <v>8.4</v>
       </c>
@@ -26594,8 +26594,8 @@
       </c>
     </row>
     <row r="108" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D108" s="84"/>
-      <c r="E108" s="84"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
       <c r="F108" s="37">
         <v>8.5</v>
       </c>
@@ -26835,8 +26835,8 @@
       </c>
     </row>
     <row r="109" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D109" s="84"/>
-      <c r="E109" s="84"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
       <c r="F109" s="37">
         <v>8.6</v>
       </c>
@@ -27076,8 +27076,8 @@
       </c>
     </row>
     <row r="110" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D110" s="84"/>
-      <c r="E110" s="84"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
       <c r="F110" s="37">
         <v>9.1</v>
       </c>
@@ -27317,8 +27317,8 @@
       </c>
     </row>
     <row r="111" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D111" s="84"/>
-      <c r="E111" s="84"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="63"/>
       <c r="F111" s="37">
         <v>10.1</v>
       </c>
@@ -27558,8 +27558,8 @@
       </c>
     </row>
     <row r="112" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D112" s="84"/>
-      <c r="E112" s="84"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="63"/>
       <c r="F112" s="37">
         <v>10.199999999999999</v>
       </c>
@@ -27799,8 +27799,8 @@
       </c>
     </row>
     <row r="113" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D113" s="84"/>
-      <c r="E113" s="84"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
       <c r="F113" s="37">
         <v>10.3</v>
       </c>
@@ -28040,8 +28040,8 @@
       </c>
     </row>
     <row r="114" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D114" s="84"/>
-      <c r="E114" s="84"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
       <c r="F114" s="37">
         <v>10.4</v>
       </c>
@@ -28281,8 +28281,8 @@
       </c>
     </row>
     <row r="115" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D115" s="84"/>
-      <c r="E115" s="84"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="63"/>
       <c r="F115" s="37">
         <v>11.1</v>
       </c>
@@ -28522,8 +28522,8 @@
       </c>
     </row>
     <row r="116" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D116" s="84"/>
-      <c r="E116" s="84"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="63"/>
       <c r="F116" s="37">
         <v>11.2</v>
       </c>
@@ -28763,8 +28763,8 @@
       </c>
     </row>
     <row r="117" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D117" s="84"/>
-      <c r="E117" s="84"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="63"/>
       <c r="F117" s="37">
         <v>12.1</v>
       </c>
@@ -29004,8 +29004,8 @@
       </c>
     </row>
     <row r="118" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D118" s="84"/>
-      <c r="E118" s="84"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="63"/>
       <c r="F118" s="37">
         <v>12.2</v>
       </c>
@@ -29245,8 +29245,8 @@
       </c>
     </row>
     <row r="119" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D119" s="84"/>
-      <c r="E119" s="84"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="63"/>
       <c r="F119" s="37">
         <v>13.1</v>
       </c>
@@ -29486,8 +29486,8 @@
       </c>
     </row>
     <row r="120" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D120" s="84"/>
-      <c r="E120" s="84"/>
+      <c r="D120" s="63"/>
+      <c r="E120" s="63"/>
       <c r="F120" s="37">
         <v>13.2</v>
       </c>
@@ -29727,8 +29727,8 @@
       </c>
     </row>
     <row r="121" spans="4:84" ht="14.5" customHeight="1">
-      <c r="D121" s="84"/>
-      <c r="E121" s="84"/>
+      <c r="D121" s="63"/>
+      <c r="E121" s="63"/>
       <c r="F121" s="37">
         <v>13.3</v>
       </c>
@@ -29968,8 +29968,8 @@
       </c>
     </row>
     <row r="122" spans="4:84" ht="15" customHeight="1" thickBot="1">
-      <c r="D122" s="84"/>
-      <c r="E122" s="85"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="64"/>
       <c r="F122" s="41">
         <v>13.4</v>
       </c>
@@ -30209,8 +30209,8 @@
       </c>
     </row>
     <row r="123" spans="4:84" ht="16">
-      <c r="D123" s="84"/>
-      <c r="E123" s="83" t="s">
+      <c r="D123" s="63"/>
+      <c r="E123" s="62" t="s">
         <v>1</v>
       </c>
       <c r="F123" s="45" t="s">
@@ -30452,8 +30452,8 @@
       </c>
     </row>
     <row r="124" spans="4:84" ht="16">
-      <c r="D124" s="84"/>
-      <c r="E124" s="84"/>
+      <c r="D124" s="63"/>
+      <c r="E124" s="63"/>
       <c r="F124" s="37" t="s">
         <v>3</v>
       </c>
@@ -30693,8 +30693,8 @@
       </c>
     </row>
     <row r="125" spans="4:84" ht="16">
-      <c r="D125" s="84"/>
-      <c r="E125" s="84"/>
+      <c r="D125" s="63"/>
+      <c r="E125" s="63"/>
       <c r="F125" s="37" t="s">
         <v>24</v>
       </c>
@@ -30934,8 +30934,8 @@
       </c>
     </row>
     <row r="126" spans="4:84" ht="16">
-      <c r="D126" s="84"/>
-      <c r="E126" s="84"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="63"/>
       <c r="F126" s="37" t="s">
         <v>25</v>
       </c>
@@ -31175,8 +31175,8 @@
       </c>
     </row>
     <row r="127" spans="4:84" ht="16">
-      <c r="D127" s="84"/>
-      <c r="E127" s="84"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="63"/>
       <c r="F127" s="37" t="s">
         <v>26</v>
       </c>
@@ -31416,8 +31416,8 @@
       </c>
     </row>
     <row r="128" spans="4:84" ht="16">
-      <c r="D128" s="84"/>
-      <c r="E128" s="84"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="63"/>
       <c r="F128" s="37" t="s">
         <v>27</v>
       </c>
@@ -31657,8 +31657,8 @@
       </c>
     </row>
     <row r="129" spans="4:84" ht="16">
-      <c r="D129" s="84"/>
-      <c r="E129" s="84"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="63"/>
       <c r="F129" s="37" t="s">
         <v>4</v>
       </c>
@@ -31898,8 +31898,8 @@
       </c>
     </row>
     <row r="130" spans="4:84" ht="16">
-      <c r="D130" s="84"/>
-      <c r="E130" s="84"/>
+      <c r="D130" s="63"/>
+      <c r="E130" s="63"/>
       <c r="F130" s="37" t="s">
         <v>5</v>
       </c>
@@ -32139,8 +32139,8 @@
       </c>
     </row>
     <row r="131" spans="4:84" ht="16">
-      <c r="D131" s="84"/>
-      <c r="E131" s="84"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="63"/>
       <c r="F131" s="37" t="s">
         <v>6</v>
       </c>
@@ -32380,8 +32380,8 @@
       </c>
     </row>
     <row r="132" spans="4:84" ht="16">
-      <c r="D132" s="84"/>
-      <c r="E132" s="84"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="63"/>
       <c r="F132" s="37" t="s">
         <v>7</v>
       </c>
@@ -32621,8 +32621,8 @@
       </c>
     </row>
     <row r="133" spans="4:84" ht="16">
-      <c r="D133" s="84"/>
-      <c r="E133" s="84"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="63"/>
       <c r="F133" s="37" t="s">
         <v>28</v>
       </c>
@@ -32862,8 +32862,8 @@
       </c>
     </row>
     <row r="134" spans="4:84" ht="16">
-      <c r="D134" s="84"/>
-      <c r="E134" s="84"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="63"/>
       <c r="F134" s="37" t="s">
         <v>29</v>
       </c>
@@ -33103,8 +33103,8 @@
       </c>
     </row>
     <row r="135" spans="4:84" ht="16">
-      <c r="D135" s="84"/>
-      <c r="E135" s="84"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="63"/>
       <c r="F135" s="37" t="s">
         <v>8</v>
       </c>
@@ -33344,8 +33344,8 @@
       </c>
     </row>
     <row r="136" spans="4:84" ht="16">
-      <c r="D136" s="84"/>
-      <c r="E136" s="84"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="63"/>
       <c r="F136" s="37" t="s">
         <v>9</v>
       </c>
@@ -33585,8 +33585,8 @@
       </c>
     </row>
     <row r="137" spans="4:84" ht="16">
-      <c r="D137" s="84"/>
-      <c r="E137" s="84"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="63"/>
       <c r="F137" s="37" t="s">
         <v>10</v>
       </c>
@@ -33826,8 +33826,8 @@
       </c>
     </row>
     <row r="138" spans="4:84" ht="16">
-      <c r="D138" s="84"/>
-      <c r="E138" s="84"/>
+      <c r="D138" s="63"/>
+      <c r="E138" s="63"/>
       <c r="F138" s="37" t="s">
         <v>11</v>
       </c>
@@ -34067,8 +34067,8 @@
       </c>
     </row>
     <row r="139" spans="4:84" ht="16">
-      <c r="D139" s="84"/>
-      <c r="E139" s="84"/>
+      <c r="D139" s="63"/>
+      <c r="E139" s="63"/>
       <c r="F139" s="37" t="s">
         <v>12</v>
       </c>
@@ -34308,8 +34308,8 @@
       </c>
     </row>
     <row r="140" spans="4:84" ht="16">
-      <c r="D140" s="84"/>
-      <c r="E140" s="84"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63"/>
       <c r="F140" s="37" t="s">
         <v>30</v>
       </c>
@@ -34549,8 +34549,8 @@
       </c>
     </row>
     <row r="141" spans="4:84" ht="16">
-      <c r="D141" s="84"/>
-      <c r="E141" s="84"/>
+      <c r="D141" s="63"/>
+      <c r="E141" s="63"/>
       <c r="F141" s="37" t="s">
         <v>31</v>
       </c>
@@ -34790,8 +34790,8 @@
       </c>
     </row>
     <row r="142" spans="4:84" ht="16">
-      <c r="D142" s="84"/>
-      <c r="E142" s="84"/>
+      <c r="D142" s="63"/>
+      <c r="E142" s="63"/>
       <c r="F142" s="37" t="s">
         <v>32</v>
       </c>
@@ -35031,8 +35031,8 @@
       </c>
     </row>
     <row r="143" spans="4:84" ht="16">
-      <c r="D143" s="84"/>
-      <c r="E143" s="84"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="63"/>
       <c r="F143" s="37" t="s">
         <v>13</v>
       </c>
@@ -35272,8 +35272,8 @@
       </c>
     </row>
     <row r="144" spans="4:84" ht="16">
-      <c r="D144" s="84"/>
-      <c r="E144" s="84"/>
+      <c r="D144" s="63"/>
+      <c r="E144" s="63"/>
       <c r="F144" s="37" t="s">
         <v>14</v>
       </c>
@@ -35513,8 +35513,8 @@
       </c>
     </row>
     <row r="145" spans="4:84" ht="16">
-      <c r="D145" s="84"/>
-      <c r="E145" s="84"/>
+      <c r="D145" s="63"/>
+      <c r="E145" s="63"/>
       <c r="F145" s="37" t="s">
         <v>15</v>
       </c>
@@ -35754,8 +35754,8 @@
       </c>
     </row>
     <row r="146" spans="4:84" ht="16">
-      <c r="D146" s="84"/>
-      <c r="E146" s="84"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="63"/>
       <c r="F146" s="37" t="s">
         <v>16</v>
       </c>
@@ -35995,8 +35995,8 @@
       </c>
     </row>
     <row r="147" spans="4:84" ht="16">
-      <c r="D147" s="84"/>
-      <c r="E147" s="84"/>
+      <c r="D147" s="63"/>
+      <c r="E147" s="63"/>
       <c r="F147" s="37" t="s">
         <v>33</v>
       </c>
@@ -36236,8 +36236,8 @@
       </c>
     </row>
     <row r="148" spans="4:84" ht="16">
-      <c r="D148" s="84"/>
-      <c r="E148" s="84"/>
+      <c r="D148" s="63"/>
+      <c r="E148" s="63"/>
       <c r="F148" s="37" t="s">
         <v>34</v>
       </c>
@@ -36477,8 +36477,8 @@
       </c>
     </row>
     <row r="149" spans="4:84" ht="16">
-      <c r="D149" s="84"/>
-      <c r="E149" s="84"/>
+      <c r="D149" s="63"/>
+      <c r="E149" s="63"/>
       <c r="F149" s="37" t="s">
         <v>35</v>
       </c>
@@ -36718,8 +36718,8 @@
       </c>
     </row>
     <row r="150" spans="4:84" ht="17" thickBot="1">
-      <c r="D150" s="85"/>
-      <c r="E150" s="85"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="64"/>
       <c r="F150" s="41" t="s">
         <v>36</v>
       </c>
@@ -36959,10 +36959,10 @@
       </c>
     </row>
     <row r="151" spans="4:84">
-      <c r="D151" s="83">
+      <c r="D151" s="62">
         <v>3</v>
       </c>
-      <c r="E151" s="83" t="s">
+      <c r="E151" s="62" t="s">
         <v>0</v>
       </c>
       <c r="F151" s="45">
@@ -37204,8 +37204,8 @@
       </c>
     </row>
     <row r="152" spans="4:84">
-      <c r="D152" s="84"/>
-      <c r="E152" s="84"/>
+      <c r="D152" s="63"/>
+      <c r="E152" s="63"/>
       <c r="F152" s="37">
         <v>1.2</v>
       </c>
@@ -37445,8 +37445,8 @@
       </c>
     </row>
     <row r="153" spans="4:84">
-      <c r="D153" s="84"/>
-      <c r="E153" s="84"/>
+      <c r="D153" s="63"/>
+      <c r="E153" s="63"/>
       <c r="F153" s="37">
         <v>1.3</v>
       </c>
@@ -37686,8 +37686,8 @@
       </c>
     </row>
     <row r="154" spans="4:84">
-      <c r="D154" s="84"/>
-      <c r="E154" s="84"/>
+      <c r="D154" s="63"/>
+      <c r="E154" s="63"/>
       <c r="F154" s="37">
         <v>1.4</v>
       </c>
@@ -37927,8 +37927,8 @@
       </c>
     </row>
     <row r="155" spans="4:84">
-      <c r="D155" s="84"/>
-      <c r="E155" s="84"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="63"/>
       <c r="F155" s="37">
         <v>2.1</v>
       </c>
@@ -38168,8 +38168,8 @@
       </c>
     </row>
     <row r="156" spans="4:84">
-      <c r="D156" s="84"/>
-      <c r="E156" s="84"/>
+      <c r="D156" s="63"/>
+      <c r="E156" s="63"/>
       <c r="F156" s="37">
         <v>2.2000000000000002</v>
       </c>
@@ -38409,8 +38409,8 @@
       </c>
     </row>
     <row r="157" spans="4:84">
-      <c r="D157" s="84"/>
-      <c r="E157" s="84"/>
+      <c r="D157" s="63"/>
+      <c r="E157" s="63"/>
       <c r="F157" s="37">
         <v>3.1</v>
       </c>
@@ -38650,8 +38650,8 @@
       </c>
     </row>
     <row r="158" spans="4:84">
-      <c r="D158" s="84"/>
-      <c r="E158" s="84"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="63"/>
       <c r="F158" s="37">
         <v>3.2</v>
       </c>
@@ -38891,8 +38891,8 @@
       </c>
     </row>
     <row r="159" spans="4:84">
-      <c r="D159" s="84"/>
-      <c r="E159" s="84"/>
+      <c r="D159" s="63"/>
+      <c r="E159" s="63"/>
       <c r="F159" s="37">
         <v>4.0999999999999996</v>
       </c>
@@ -39132,8 +39132,8 @@
       </c>
     </row>
     <row r="160" spans="4:84">
-      <c r="D160" s="84"/>
-      <c r="E160" s="84"/>
+      <c r="D160" s="63"/>
+      <c r="E160" s="63"/>
       <c r="F160" s="37">
         <v>4.2</v>
       </c>
@@ -39373,8 +39373,8 @@
       </c>
     </row>
     <row r="161" spans="4:84">
-      <c r="D161" s="84"/>
-      <c r="E161" s="84"/>
+      <c r="D161" s="63"/>
+      <c r="E161" s="63"/>
       <c r="F161" s="37">
         <v>4.3</v>
       </c>
@@ -39614,8 +39614,8 @@
       </c>
     </row>
     <row r="162" spans="4:84">
-      <c r="D162" s="84"/>
-      <c r="E162" s="84"/>
+      <c r="D162" s="63"/>
+      <c r="E162" s="63"/>
       <c r="F162" s="37">
         <v>4.4000000000000004</v>
       </c>
@@ -39855,8 +39855,8 @@
       </c>
     </row>
     <row r="163" spans="4:84">
-      <c r="D163" s="84"/>
-      <c r="E163" s="84"/>
+      <c r="D163" s="63"/>
+      <c r="E163" s="63"/>
       <c r="F163" s="37">
         <v>5.0999999999999996</v>
       </c>
@@ -40096,8 +40096,8 @@
       </c>
     </row>
     <row r="164" spans="4:84">
-      <c r="D164" s="84"/>
-      <c r="E164" s="84"/>
+      <c r="D164" s="63"/>
+      <c r="E164" s="63"/>
       <c r="F164" s="37">
         <v>6.1</v>
       </c>
@@ -40337,8 +40337,8 @@
       </c>
     </row>
     <row r="165" spans="4:84">
-      <c r="D165" s="84"/>
-      <c r="E165" s="84"/>
+      <c r="D165" s="63"/>
+      <c r="E165" s="63"/>
       <c r="F165" s="37">
         <v>6.2</v>
       </c>
@@ -40578,8 +40578,8 @@
       </c>
     </row>
     <row r="166" spans="4:84">
-      <c r="D166" s="84"/>
-      <c r="E166" s="84"/>
+      <c r="D166" s="63"/>
+      <c r="E166" s="63"/>
       <c r="F166" s="37">
         <v>6.3</v>
       </c>
@@ -40819,8 +40819,8 @@
       </c>
     </row>
     <row r="167" spans="4:84">
-      <c r="D167" s="84"/>
-      <c r="E167" s="84"/>
+      <c r="D167" s="63"/>
+      <c r="E167" s="63"/>
       <c r="F167" s="37">
         <v>6.4</v>
       </c>
@@ -41060,8 +41060,8 @@
       </c>
     </row>
     <row r="168" spans="4:84">
-      <c r="D168" s="84"/>
-      <c r="E168" s="84"/>
+      <c r="D168" s="63"/>
+      <c r="E168" s="63"/>
       <c r="F168" s="37">
         <v>6.5</v>
       </c>
@@ -41301,8 +41301,8 @@
       </c>
     </row>
     <row r="169" spans="4:84">
-      <c r="D169" s="84"/>
-      <c r="E169" s="84"/>
+      <c r="D169" s="63"/>
+      <c r="E169" s="63"/>
       <c r="F169" s="37">
         <v>6.6</v>
       </c>
@@ -41542,8 +41542,8 @@
       </c>
     </row>
     <row r="170" spans="4:84">
-      <c r="D170" s="84"/>
-      <c r="E170" s="84"/>
+      <c r="D170" s="63"/>
+      <c r="E170" s="63"/>
       <c r="F170" s="37">
         <v>7.1</v>
       </c>
@@ -41783,8 +41783,8 @@
       </c>
     </row>
     <row r="171" spans="4:84">
-      <c r="D171" s="84"/>
-      <c r="E171" s="84"/>
+      <c r="D171" s="63"/>
+      <c r="E171" s="63"/>
       <c r="F171" s="37">
         <v>7.2</v>
       </c>
@@ -42024,8 +42024,8 @@
       </c>
     </row>
     <row r="172" spans="4:84">
-      <c r="D172" s="84"/>
-      <c r="E172" s="84"/>
+      <c r="D172" s="63"/>
+      <c r="E172" s="63"/>
       <c r="F172" s="37">
         <v>8.1</v>
       </c>
@@ -42265,8 +42265,8 @@
       </c>
     </row>
     <row r="173" spans="4:84">
-      <c r="D173" s="84"/>
-      <c r="E173" s="84"/>
+      <c r="D173" s="63"/>
+      <c r="E173" s="63"/>
       <c r="F173" s="37">
         <v>8.1999999999999993</v>
       </c>
@@ -42506,8 +42506,8 @@
       </c>
     </row>
     <row r="174" spans="4:84">
-      <c r="D174" s="84"/>
-      <c r="E174" s="84"/>
+      <c r="D174" s="63"/>
+      <c r="E174" s="63"/>
       <c r="F174" s="37">
         <v>8.3000000000000007</v>
       </c>
@@ -42747,8 +42747,8 @@
       </c>
     </row>
     <row r="175" spans="4:84">
-      <c r="D175" s="84"/>
-      <c r="E175" s="84"/>
+      <c r="D175" s="63"/>
+      <c r="E175" s="63"/>
       <c r="F175" s="37">
         <v>8.4</v>
       </c>
@@ -42988,8 +42988,8 @@
       </c>
     </row>
     <row r="176" spans="4:84">
-      <c r="D176" s="84"/>
-      <c r="E176" s="84"/>
+      <c r="D176" s="63"/>
+      <c r="E176" s="63"/>
       <c r="F176" s="37">
         <v>8.5</v>
       </c>
@@ -43229,8 +43229,8 @@
       </c>
     </row>
     <row r="177" spans="4:84">
-      <c r="D177" s="84"/>
-      <c r="E177" s="84"/>
+      <c r="D177" s="63"/>
+      <c r="E177" s="63"/>
       <c r="F177" s="37">
         <v>8.6</v>
       </c>
@@ -43470,8 +43470,8 @@
       </c>
     </row>
     <row r="178" spans="4:84">
-      <c r="D178" s="84"/>
-      <c r="E178" s="84"/>
+      <c r="D178" s="63"/>
+      <c r="E178" s="63"/>
       <c r="F178" s="37">
         <v>9.1</v>
       </c>
@@ -43711,8 +43711,8 @@
       </c>
     </row>
     <row r="179" spans="4:84">
-      <c r="D179" s="84"/>
-      <c r="E179" s="84"/>
+      <c r="D179" s="63"/>
+      <c r="E179" s="63"/>
       <c r="F179" s="37">
         <v>10.1</v>
       </c>
@@ -43952,8 +43952,8 @@
       </c>
     </row>
     <row r="180" spans="4:84">
-      <c r="D180" s="84"/>
-      <c r="E180" s="84"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="63"/>
       <c r="F180" s="37">
         <v>10.199999999999999</v>
       </c>
@@ -44193,8 +44193,8 @@
       </c>
     </row>
     <row r="181" spans="4:84">
-      <c r="D181" s="84"/>
-      <c r="E181" s="84"/>
+      <c r="D181" s="63"/>
+      <c r="E181" s="63"/>
       <c r="F181" s="37">
         <v>10.3</v>
       </c>
@@ -44434,8 +44434,8 @@
       </c>
     </row>
     <row r="182" spans="4:84">
-      <c r="D182" s="84"/>
-      <c r="E182" s="84"/>
+      <c r="D182" s="63"/>
+      <c r="E182" s="63"/>
       <c r="F182" s="37">
         <v>10.4</v>
       </c>
@@ -44675,8 +44675,8 @@
       </c>
     </row>
     <row r="183" spans="4:84">
-      <c r="D183" s="84"/>
-      <c r="E183" s="84"/>
+      <c r="D183" s="63"/>
+      <c r="E183" s="63"/>
       <c r="F183" s="37">
         <v>11.1</v>
       </c>
@@ -44916,8 +44916,8 @@
       </c>
     </row>
     <row r="184" spans="4:84">
-      <c r="D184" s="84"/>
-      <c r="E184" s="84"/>
+      <c r="D184" s="63"/>
+      <c r="E184" s="63"/>
       <c r="F184" s="37">
         <v>11.2</v>
       </c>
@@ -45157,8 +45157,8 @@
       </c>
     </row>
     <row r="185" spans="4:84">
-      <c r="D185" s="84"/>
-      <c r="E185" s="84"/>
+      <c r="D185" s="63"/>
+      <c r="E185" s="63"/>
       <c r="F185" s="37">
         <v>12.1</v>
       </c>
@@ -45398,8 +45398,8 @@
       </c>
     </row>
     <row r="186" spans="4:84">
-      <c r="D186" s="84"/>
-      <c r="E186" s="84"/>
+      <c r="D186" s="63"/>
+      <c r="E186" s="63"/>
       <c r="F186" s="37">
         <v>12.2</v>
       </c>
@@ -45639,8 +45639,8 @@
       </c>
     </row>
     <row r="187" spans="4:84">
-      <c r="D187" s="84"/>
-      <c r="E187" s="84"/>
+      <c r="D187" s="63"/>
+      <c r="E187" s="63"/>
       <c r="F187" s="37">
         <v>13.1</v>
       </c>
@@ -45880,8 +45880,8 @@
       </c>
     </row>
     <row r="188" spans="4:84">
-      <c r="D188" s="84"/>
-      <c r="E188" s="84"/>
+      <c r="D188" s="63"/>
+      <c r="E188" s="63"/>
       <c r="F188" s="37">
         <v>13.2</v>
       </c>
@@ -46121,8 +46121,8 @@
       </c>
     </row>
     <row r="189" spans="4:84">
-      <c r="D189" s="84"/>
-      <c r="E189" s="84"/>
+      <c r="D189" s="63"/>
+      <c r="E189" s="63"/>
       <c r="F189" s="37">
         <v>13.3</v>
       </c>
@@ -46362,8 +46362,8 @@
       </c>
     </row>
     <row r="190" spans="4:84" ht="16" thickBot="1">
-      <c r="D190" s="84"/>
-      <c r="E190" s="85"/>
+      <c r="D190" s="63"/>
+      <c r="E190" s="64"/>
       <c r="F190" s="41">
         <v>13.4</v>
       </c>
@@ -46603,8 +46603,8 @@
       </c>
     </row>
     <row r="191" spans="4:84" ht="16">
-      <c r="D191" s="84"/>
-      <c r="E191" s="83" t="s">
+      <c r="D191" s="63"/>
+      <c r="E191" s="62" t="s">
         <v>1</v>
       </c>
       <c r="F191" s="45" t="s">
@@ -46846,8 +46846,8 @@
       </c>
     </row>
     <row r="192" spans="4:84" ht="16">
-      <c r="D192" s="84"/>
-      <c r="E192" s="84"/>
+      <c r="D192" s="63"/>
+      <c r="E192" s="63"/>
       <c r="F192" s="37" t="s">
         <v>3</v>
       </c>
@@ -47087,8 +47087,8 @@
       </c>
     </row>
     <row r="193" spans="4:84" ht="16">
-      <c r="D193" s="84"/>
-      <c r="E193" s="84"/>
+      <c r="D193" s="63"/>
+      <c r="E193" s="63"/>
       <c r="F193" s="37" t="s">
         <v>24</v>
       </c>
@@ -47328,8 +47328,8 @@
       </c>
     </row>
     <row r="194" spans="4:84" ht="16">
-      <c r="D194" s="84"/>
-      <c r="E194" s="84"/>
+      <c r="D194" s="63"/>
+      <c r="E194" s="63"/>
       <c r="F194" s="37" t="s">
         <v>25</v>
       </c>
@@ -47569,8 +47569,8 @@
       </c>
     </row>
     <row r="195" spans="4:84" ht="16">
-      <c r="D195" s="84"/>
-      <c r="E195" s="84"/>
+      <c r="D195" s="63"/>
+      <c r="E195" s="63"/>
       <c r="F195" s="37" t="s">
         <v>26</v>
       </c>
@@ -47810,8 +47810,8 @@
       </c>
     </row>
     <row r="196" spans="4:84" ht="16">
-      <c r="D196" s="84"/>
-      <c r="E196" s="84"/>
+      <c r="D196" s="63"/>
+      <c r="E196" s="63"/>
       <c r="F196" s="37" t="s">
         <v>27</v>
       </c>
@@ -48051,8 +48051,8 @@
       </c>
     </row>
     <row r="197" spans="4:84" ht="16">
-      <c r="D197" s="84"/>
-      <c r="E197" s="84"/>
+      <c r="D197" s="63"/>
+      <c r="E197" s="63"/>
       <c r="F197" s="37" t="s">
         <v>4</v>
       </c>
@@ -48292,8 +48292,8 @@
       </c>
     </row>
     <row r="198" spans="4:84" ht="16">
-      <c r="D198" s="84"/>
-      <c r="E198" s="84"/>
+      <c r="D198" s="63"/>
+      <c r="E198" s="63"/>
       <c r="F198" s="37" t="s">
         <v>5</v>
       </c>
@@ -48533,8 +48533,8 @@
       </c>
     </row>
     <row r="199" spans="4:84" ht="16">
-      <c r="D199" s="84"/>
-      <c r="E199" s="84"/>
+      <c r="D199" s="63"/>
+      <c r="E199" s="63"/>
       <c r="F199" s="37" t="s">
         <v>6</v>
       </c>
@@ -48774,8 +48774,8 @@
       </c>
     </row>
     <row r="200" spans="4:84" ht="16">
-      <c r="D200" s="84"/>
-      <c r="E200" s="84"/>
+      <c r="D200" s="63"/>
+      <c r="E200" s="63"/>
       <c r="F200" s="37" t="s">
         <v>7</v>
       </c>
@@ -49015,8 +49015,8 @@
       </c>
     </row>
     <row r="201" spans="4:84" ht="16">
-      <c r="D201" s="84"/>
-      <c r="E201" s="84"/>
+      <c r="D201" s="63"/>
+      <c r="E201" s="63"/>
       <c r="F201" s="37" t="s">
         <v>28</v>
       </c>
@@ -49256,8 +49256,8 @@
       </c>
     </row>
     <row r="202" spans="4:84" ht="16">
-      <c r="D202" s="84"/>
-      <c r="E202" s="84"/>
+      <c r="D202" s="63"/>
+      <c r="E202" s="63"/>
       <c r="F202" s="37" t="s">
         <v>29</v>
       </c>
@@ -49497,8 +49497,8 @@
       </c>
     </row>
     <row r="203" spans="4:84" ht="16">
-      <c r="D203" s="84"/>
-      <c r="E203" s="84"/>
+      <c r="D203" s="63"/>
+      <c r="E203" s="63"/>
       <c r="F203" s="37" t="s">
         <v>8</v>
       </c>
@@ -49738,8 +49738,8 @@
       </c>
     </row>
     <row r="204" spans="4:84" ht="16">
-      <c r="D204" s="84"/>
-      <c r="E204" s="84"/>
+      <c r="D204" s="63"/>
+      <c r="E204" s="63"/>
       <c r="F204" s="37" t="s">
         <v>9</v>
       </c>
@@ -49979,8 +49979,8 @@
       </c>
     </row>
     <row r="205" spans="4:84" ht="16">
-      <c r="D205" s="84"/>
-      <c r="E205" s="84"/>
+      <c r="D205" s="63"/>
+      <c r="E205" s="63"/>
       <c r="F205" s="37" t="s">
         <v>10</v>
       </c>
@@ -50220,8 +50220,8 @@
       </c>
     </row>
     <row r="206" spans="4:84" ht="16">
-      <c r="D206" s="84"/>
-      <c r="E206" s="84"/>
+      <c r="D206" s="63"/>
+      <c r="E206" s="63"/>
       <c r="F206" s="37" t="s">
         <v>11</v>
       </c>
@@ -50461,8 +50461,8 @@
       </c>
     </row>
     <row r="207" spans="4:84" ht="16">
-      <c r="D207" s="84"/>
-      <c r="E207" s="84"/>
+      <c r="D207" s="63"/>
+      <c r="E207" s="63"/>
       <c r="F207" s="37" t="s">
         <v>12</v>
       </c>
@@ -50702,8 +50702,8 @@
       </c>
     </row>
     <row r="208" spans="4:84" ht="16">
-      <c r="D208" s="84"/>
-      <c r="E208" s="84"/>
+      <c r="D208" s="63"/>
+      <c r="E208" s="63"/>
       <c r="F208" s="37" t="s">
         <v>30</v>
       </c>
@@ -50943,8 +50943,8 @@
       </c>
     </row>
     <row r="209" spans="4:84" ht="16">
-      <c r="D209" s="84"/>
-      <c r="E209" s="84"/>
+      <c r="D209" s="63"/>
+      <c r="E209" s="63"/>
       <c r="F209" s="37" t="s">
         <v>31</v>
       </c>
@@ -51184,8 +51184,8 @@
       </c>
     </row>
     <row r="210" spans="4:84" ht="16">
-      <c r="D210" s="84"/>
-      <c r="E210" s="84"/>
+      <c r="D210" s="63"/>
+      <c r="E210" s="63"/>
       <c r="F210" s="37" t="s">
         <v>32</v>
       </c>
@@ -51425,8 +51425,8 @@
       </c>
     </row>
     <row r="211" spans="4:84" ht="16">
-      <c r="D211" s="84"/>
-      <c r="E211" s="84"/>
+      <c r="D211" s="63"/>
+      <c r="E211" s="63"/>
       <c r="F211" s="37" t="s">
         <v>13</v>
       </c>
@@ -51666,8 +51666,8 @@
       </c>
     </row>
     <row r="212" spans="4:84" ht="16">
-      <c r="D212" s="84"/>
-      <c r="E212" s="84"/>
+      <c r="D212" s="63"/>
+      <c r="E212" s="63"/>
       <c r="F212" s="37" t="s">
         <v>14</v>
       </c>
@@ -51907,8 +51907,8 @@
       </c>
     </row>
     <row r="213" spans="4:84" ht="16">
-      <c r="D213" s="84"/>
-      <c r="E213" s="84"/>
+      <c r="D213" s="63"/>
+      <c r="E213" s="63"/>
       <c r="F213" s="37" t="s">
         <v>15</v>
       </c>
@@ -52148,8 +52148,8 @@
       </c>
     </row>
     <row r="214" spans="4:84" ht="16">
-      <c r="D214" s="84"/>
-      <c r="E214" s="84"/>
+      <c r="D214" s="63"/>
+      <c r="E214" s="63"/>
       <c r="F214" s="37" t="s">
         <v>16</v>
       </c>
@@ -52389,8 +52389,8 @@
       </c>
     </row>
     <row r="215" spans="4:84" ht="16">
-      <c r="D215" s="84"/>
-      <c r="E215" s="84"/>
+      <c r="D215" s="63"/>
+      <c r="E215" s="63"/>
       <c r="F215" s="37" t="s">
         <v>33</v>
       </c>
@@ -52630,8 +52630,8 @@
       </c>
     </row>
     <row r="216" spans="4:84" ht="16">
-      <c r="D216" s="84"/>
-      <c r="E216" s="84"/>
+      <c r="D216" s="63"/>
+      <c r="E216" s="63"/>
       <c r="F216" s="37" t="s">
         <v>34</v>
       </c>
@@ -52871,8 +52871,8 @@
       </c>
     </row>
     <row r="217" spans="4:84" ht="16">
-      <c r="D217" s="84"/>
-      <c r="E217" s="84"/>
+      <c r="D217" s="63"/>
+      <c r="E217" s="63"/>
       <c r="F217" s="37" t="s">
         <v>35</v>
       </c>
@@ -53112,8 +53112,8 @@
       </c>
     </row>
     <row r="218" spans="4:84" ht="17" thickBot="1">
-      <c r="D218" s="85"/>
-      <c r="E218" s="85"/>
+      <c r="D218" s="64"/>
+      <c r="E218" s="64"/>
       <c r="F218" s="41" t="s">
         <v>36</v>
       </c>
@@ -53353,10 +53353,12 @@
       </c>
     </row>
     <row r="219" spans="4:84">
-      <c r="D219" s="83">
+      <c r="D219" s="62">
         <v>4</v>
       </c>
-      <c r="E219" s="83"/>
+      <c r="E219" s="62" t="s">
+        <v>0</v>
+      </c>
       <c r="F219" s="45">
         <v>1.1000000000000001</v>
       </c>
@@ -53596,8 +53598,8 @@
       </c>
     </row>
     <row r="220" spans="4:84">
-      <c r="D220" s="84"/>
-      <c r="E220" s="84"/>
+      <c r="D220" s="63"/>
+      <c r="E220" s="63"/>
       <c r="F220" s="37">
         <v>1.2</v>
       </c>
@@ -53837,8 +53839,8 @@
       </c>
     </row>
     <row r="221" spans="4:84">
-      <c r="D221" s="84"/>
-      <c r="E221" s="84"/>
+      <c r="D221" s="63"/>
+      <c r="E221" s="63"/>
       <c r="F221" s="37">
         <v>1.3</v>
       </c>
@@ -54078,8 +54080,8 @@
       </c>
     </row>
     <row r="222" spans="4:84">
-      <c r="D222" s="84"/>
-      <c r="E222" s="84"/>
+      <c r="D222" s="63"/>
+      <c r="E222" s="63"/>
       <c r="F222" s="37">
         <v>1.4</v>
       </c>
@@ -54319,8 +54321,8 @@
       </c>
     </row>
     <row r="223" spans="4:84">
-      <c r="D223" s="84"/>
-      <c r="E223" s="84"/>
+      <c r="D223" s="63"/>
+      <c r="E223" s="63"/>
       <c r="F223" s="37">
         <v>2.1</v>
       </c>
@@ -54560,8 +54562,8 @@
       </c>
     </row>
     <row r="224" spans="4:84">
-      <c r="D224" s="84"/>
-      <c r="E224" s="84"/>
+      <c r="D224" s="63"/>
+      <c r="E224" s="63"/>
       <c r="F224" s="37">
         <v>2.2000000000000002</v>
       </c>
@@ -54801,8 +54803,8 @@
       </c>
     </row>
     <row r="225" spans="4:84">
-      <c r="D225" s="84"/>
-      <c r="E225" s="84"/>
+      <c r="D225" s="63"/>
+      <c r="E225" s="63"/>
       <c r="F225" s="37">
         <v>3.1</v>
       </c>
@@ -55042,8 +55044,8 @@
       </c>
     </row>
     <row r="226" spans="4:84">
-      <c r="D226" s="84"/>
-      <c r="E226" s="84"/>
+      <c r="D226" s="63"/>
+      <c r="E226" s="63"/>
       <c r="F226" s="37">
         <v>3.2</v>
       </c>
@@ -55283,8 +55285,8 @@
       </c>
     </row>
     <row r="227" spans="4:84">
-      <c r="D227" s="84"/>
-      <c r="E227" s="84"/>
+      <c r="D227" s="63"/>
+      <c r="E227" s="63"/>
       <c r="F227" s="37">
         <v>4.0999999999999996</v>
       </c>
@@ -55524,8 +55526,8 @@
       </c>
     </row>
     <row r="228" spans="4:84">
-      <c r="D228" s="84"/>
-      <c r="E228" s="84"/>
+      <c r="D228" s="63"/>
+      <c r="E228" s="63"/>
       <c r="F228" s="37">
         <v>4.2</v>
       </c>
@@ -55765,8 +55767,8 @@
       </c>
     </row>
     <row r="229" spans="4:84">
-      <c r="D229" s="84"/>
-      <c r="E229" s="84"/>
+      <c r="D229" s="63"/>
+      <c r="E229" s="63"/>
       <c r="F229" s="37">
         <v>4.3</v>
       </c>
@@ -56006,8 +56008,8 @@
       </c>
     </row>
     <row r="230" spans="4:84">
-      <c r="D230" s="84"/>
-      <c r="E230" s="84"/>
+      <c r="D230" s="63"/>
+      <c r="E230" s="63"/>
       <c r="F230" s="37">
         <v>4.4000000000000004</v>
       </c>
@@ -56247,8 +56249,8 @@
       </c>
     </row>
     <row r="231" spans="4:84">
-      <c r="D231" s="84"/>
-      <c r="E231" s="84"/>
+      <c r="D231" s="63"/>
+      <c r="E231" s="63"/>
       <c r="F231" s="37">
         <v>5.0999999999999996</v>
       </c>
@@ -56488,8 +56490,8 @@
       </c>
     </row>
     <row r="232" spans="4:84">
-      <c r="D232" s="84"/>
-      <c r="E232" s="84"/>
+      <c r="D232" s="63"/>
+      <c r="E232" s="63"/>
       <c r="F232" s="37">
         <v>6.1</v>
       </c>
@@ -56729,8 +56731,8 @@
       </c>
     </row>
     <row r="233" spans="4:84">
-      <c r="D233" s="84"/>
-      <c r="E233" s="84"/>
+      <c r="D233" s="63"/>
+      <c r="E233" s="63"/>
       <c r="F233" s="37">
         <v>6.2</v>
       </c>
@@ -56970,8 +56972,8 @@
       </c>
     </row>
     <row r="234" spans="4:84">
-      <c r="D234" s="84"/>
-      <c r="E234" s="84"/>
+      <c r="D234" s="63"/>
+      <c r="E234" s="63"/>
       <c r="F234" s="37">
         <v>6.3</v>
       </c>
@@ -57211,8 +57213,8 @@
       </c>
     </row>
     <row r="235" spans="4:84">
-      <c r="D235" s="84"/>
-      <c r="E235" s="84"/>
+      <c r="D235" s="63"/>
+      <c r="E235" s="63"/>
       <c r="F235" s="37">
         <v>6.4</v>
       </c>
@@ -57452,8 +57454,8 @@
       </c>
     </row>
     <row r="236" spans="4:84">
-      <c r="D236" s="84"/>
-      <c r="E236" s="84"/>
+      <c r="D236" s="63"/>
+      <c r="E236" s="63"/>
       <c r="F236" s="37">
         <v>6.5</v>
       </c>
@@ -57693,8 +57695,8 @@
       </c>
     </row>
     <row r="237" spans="4:84">
-      <c r="D237" s="84"/>
-      <c r="E237" s="84"/>
+      <c r="D237" s="63"/>
+      <c r="E237" s="63"/>
       <c r="F237" s="37">
         <v>6.6</v>
       </c>
@@ -57934,8 +57936,8 @@
       </c>
     </row>
     <row r="238" spans="4:84">
-      <c r="D238" s="84"/>
-      <c r="E238" s="84"/>
+      <c r="D238" s="63"/>
+      <c r="E238" s="63"/>
       <c r="F238" s="37">
         <v>7.1</v>
       </c>
@@ -58175,8 +58177,8 @@
       </c>
     </row>
     <row r="239" spans="4:84">
-      <c r="D239" s="84"/>
-      <c r="E239" s="84"/>
+      <c r="D239" s="63"/>
+      <c r="E239" s="63"/>
       <c r="F239" s="37">
         <v>7.2</v>
       </c>
@@ -58416,8 +58418,8 @@
       </c>
     </row>
     <row r="240" spans="4:84">
-      <c r="D240" s="84"/>
-      <c r="E240" s="84"/>
+      <c r="D240" s="63"/>
+      <c r="E240" s="63"/>
       <c r="F240" s="37">
         <v>8.1</v>
       </c>
@@ -58657,8 +58659,8 @@
       </c>
     </row>
     <row r="241" spans="4:84">
-      <c r="D241" s="84"/>
-      <c r="E241" s="84"/>
+      <c r="D241" s="63"/>
+      <c r="E241" s="63"/>
       <c r="F241" s="37">
         <v>8.1999999999999993</v>
       </c>
@@ -58898,8 +58900,8 @@
       </c>
     </row>
     <row r="242" spans="4:84">
-      <c r="D242" s="84"/>
-      <c r="E242" s="84"/>
+      <c r="D242" s="63"/>
+      <c r="E242" s="63"/>
       <c r="F242" s="37">
         <v>8.3000000000000007</v>
       </c>
@@ -59139,8 +59141,8 @@
       </c>
     </row>
     <row r="243" spans="4:84">
-      <c r="D243" s="84"/>
-      <c r="E243" s="84"/>
+      <c r="D243" s="63"/>
+      <c r="E243" s="63"/>
       <c r="F243" s="37">
         <v>8.4</v>
       </c>
@@ -59380,8 +59382,8 @@
       </c>
     </row>
     <row r="244" spans="4:84">
-      <c r="D244" s="84"/>
-      <c r="E244" s="84"/>
+      <c r="D244" s="63"/>
+      <c r="E244" s="63"/>
       <c r="F244" s="37">
         <v>8.5</v>
       </c>
@@ -59621,8 +59623,8 @@
       </c>
     </row>
     <row r="245" spans="4:84">
-      <c r="D245" s="84"/>
-      <c r="E245" s="84"/>
+      <c r="D245" s="63"/>
+      <c r="E245" s="63"/>
       <c r="F245" s="37">
         <v>8.6</v>
       </c>
@@ -59862,8 +59864,8 @@
       </c>
     </row>
     <row r="246" spans="4:84">
-      <c r="D246" s="84"/>
-      <c r="E246" s="84"/>
+      <c r="D246" s="63"/>
+      <c r="E246" s="63"/>
       <c r="F246" s="37">
         <v>9.1</v>
       </c>
@@ -60103,8 +60105,8 @@
       </c>
     </row>
     <row r="247" spans="4:84">
-      <c r="D247" s="84"/>
-      <c r="E247" s="84"/>
+      <c r="D247" s="63"/>
+      <c r="E247" s="63"/>
       <c r="F247" s="37">
         <v>10.1</v>
       </c>
@@ -60344,8 +60346,8 @@
       </c>
     </row>
     <row r="248" spans="4:84">
-      <c r="D248" s="84"/>
-      <c r="E248" s="84"/>
+      <c r="D248" s="63"/>
+      <c r="E248" s="63"/>
       <c r="F248" s="37">
         <v>10.199999999999999</v>
       </c>
@@ -60585,8 +60587,8 @@
       </c>
     </row>
     <row r="249" spans="4:84">
-      <c r="D249" s="84"/>
-      <c r="E249" s="84"/>
+      <c r="D249" s="63"/>
+      <c r="E249" s="63"/>
       <c r="F249" s="37">
         <v>10.3</v>
       </c>
@@ -60826,8 +60828,8 @@
       </c>
     </row>
     <row r="250" spans="4:84">
-      <c r="D250" s="84"/>
-      <c r="E250" s="84"/>
+      <c r="D250" s="63"/>
+      <c r="E250" s="63"/>
       <c r="F250" s="37">
         <v>10.4</v>
       </c>
@@ -61067,8 +61069,8 @@
       </c>
     </row>
     <row r="251" spans="4:84">
-      <c r="D251" s="84"/>
-      <c r="E251" s="84"/>
+      <c r="D251" s="63"/>
+      <c r="E251" s="63"/>
       <c r="F251" s="37">
         <v>11.1</v>
       </c>
@@ -61308,8 +61310,8 @@
       </c>
     </row>
     <row r="252" spans="4:84">
-      <c r="D252" s="84"/>
-      <c r="E252" s="84"/>
+      <c r="D252" s="63"/>
+      <c r="E252" s="63"/>
       <c r="F252" s="37">
         <v>11.2</v>
       </c>
@@ -61549,8 +61551,8 @@
       </c>
     </row>
     <row r="253" spans="4:84">
-      <c r="D253" s="84"/>
-      <c r="E253" s="84"/>
+      <c r="D253" s="63"/>
+      <c r="E253" s="63"/>
       <c r="F253" s="37">
         <v>12.1</v>
       </c>
@@ -61790,8 +61792,8 @@
       </c>
     </row>
     <row r="254" spans="4:84">
-      <c r="D254" s="84"/>
-      <c r="E254" s="84"/>
+      <c r="D254" s="63"/>
+      <c r="E254" s="63"/>
       <c r="F254" s="37">
         <v>12.2</v>
       </c>
@@ -62031,8 +62033,8 @@
       </c>
     </row>
     <row r="255" spans="4:84">
-      <c r="D255" s="84"/>
-      <c r="E255" s="84"/>
+      <c r="D255" s="63"/>
+      <c r="E255" s="63"/>
       <c r="F255" s="37">
         <v>13.1</v>
       </c>
@@ -62272,8 +62274,8 @@
       </c>
     </row>
     <row r="256" spans="4:84">
-      <c r="D256" s="84"/>
-      <c r="E256" s="84"/>
+      <c r="D256" s="63"/>
+      <c r="E256" s="63"/>
       <c r="F256" s="37">
         <v>13.2</v>
       </c>
@@ -62513,8 +62515,8 @@
       </c>
     </row>
     <row r="257" spans="4:84">
-      <c r="D257" s="84"/>
-      <c r="E257" s="84"/>
+      <c r="D257" s="63"/>
+      <c r="E257" s="63"/>
       <c r="F257" s="37">
         <v>13.3</v>
       </c>
@@ -62754,8 +62756,8 @@
       </c>
     </row>
     <row r="258" spans="4:84" ht="16" thickBot="1">
-      <c r="D258" s="84"/>
-      <c r="E258" s="85"/>
+      <c r="D258" s="63"/>
+      <c r="E258" s="64"/>
       <c r="F258" s="41">
         <v>13.4</v>
       </c>
@@ -62995,8 +62997,10 @@
       </c>
     </row>
     <row r="259" spans="4:84" ht="16">
-      <c r="D259" s="84"/>
-      <c r="E259" s="83"/>
+      <c r="D259" s="63"/>
+      <c r="E259" s="62" t="s">
+        <v>1</v>
+      </c>
       <c r="F259" s="45" t="s">
         <v>2</v>
       </c>
@@ -63236,8 +63240,8 @@
       </c>
     </row>
     <row r="260" spans="4:84" ht="16">
-      <c r="D260" s="84"/>
-      <c r="E260" s="84"/>
+      <c r="D260" s="63"/>
+      <c r="E260" s="63"/>
       <c r="F260" s="37" t="s">
         <v>3</v>
       </c>
@@ -63477,8 +63481,8 @@
       </c>
     </row>
     <row r="261" spans="4:84" ht="16">
-      <c r="D261" s="84"/>
-      <c r="E261" s="84"/>
+      <c r="D261" s="63"/>
+      <c r="E261" s="63"/>
       <c r="F261" s="37" t="s">
         <v>24</v>
       </c>
@@ -63718,8 +63722,8 @@
       </c>
     </row>
     <row r="262" spans="4:84" ht="16">
-      <c r="D262" s="84"/>
-      <c r="E262" s="84"/>
+      <c r="D262" s="63"/>
+      <c r="E262" s="63"/>
       <c r="F262" s="37" t="s">
         <v>25</v>
       </c>
@@ -63959,8 +63963,8 @@
       </c>
     </row>
     <row r="263" spans="4:84" ht="16">
-      <c r="D263" s="84"/>
-      <c r="E263" s="84"/>
+      <c r="D263" s="63"/>
+      <c r="E263" s="63"/>
       <c r="F263" s="37" t="s">
         <v>26</v>
       </c>
@@ -64200,8 +64204,8 @@
       </c>
     </row>
     <row r="264" spans="4:84" ht="16">
-      <c r="D264" s="84"/>
-      <c r="E264" s="84"/>
+      <c r="D264" s="63"/>
+      <c r="E264" s="63"/>
       <c r="F264" s="37" t="s">
         <v>27</v>
       </c>
@@ -64441,8 +64445,8 @@
       </c>
     </row>
     <row r="265" spans="4:84" ht="16">
-      <c r="D265" s="84"/>
-      <c r="E265" s="84"/>
+      <c r="D265" s="63"/>
+      <c r="E265" s="63"/>
       <c r="F265" s="37" t="s">
         <v>4</v>
       </c>
@@ -64682,8 +64686,8 @@
       </c>
     </row>
     <row r="266" spans="4:84" ht="16">
-      <c r="D266" s="84"/>
-      <c r="E266" s="84"/>
+      <c r="D266" s="63"/>
+      <c r="E266" s="63"/>
       <c r="F266" s="37" t="s">
         <v>5</v>
       </c>
@@ -64923,8 +64927,8 @@
       </c>
     </row>
     <row r="267" spans="4:84" ht="16">
-      <c r="D267" s="84"/>
-      <c r="E267" s="84"/>
+      <c r="D267" s="63"/>
+      <c r="E267" s="63"/>
       <c r="F267" s="37" t="s">
         <v>6</v>
       </c>
@@ -65164,8 +65168,8 @@
       </c>
     </row>
     <row r="268" spans="4:84" ht="16">
-      <c r="D268" s="84"/>
-      <c r="E268" s="84"/>
+      <c r="D268" s="63"/>
+      <c r="E268" s="63"/>
       <c r="F268" s="37" t="s">
         <v>7</v>
       </c>
@@ -65405,8 +65409,8 @@
       </c>
     </row>
     <row r="269" spans="4:84" ht="16">
-      <c r="D269" s="84"/>
-      <c r="E269" s="84"/>
+      <c r="D269" s="63"/>
+      <c r="E269" s="63"/>
       <c r="F269" s="37" t="s">
         <v>28</v>
       </c>
@@ -65646,8 +65650,8 @@
       </c>
     </row>
     <row r="270" spans="4:84" ht="16">
-      <c r="D270" s="84"/>
-      <c r="E270" s="84"/>
+      <c r="D270" s="63"/>
+      <c r="E270" s="63"/>
       <c r="F270" s="37" t="s">
         <v>29</v>
       </c>
@@ -65887,8 +65891,8 @@
       </c>
     </row>
     <row r="271" spans="4:84" ht="16">
-      <c r="D271" s="84"/>
-      <c r="E271" s="84"/>
+      <c r="D271" s="63"/>
+      <c r="E271" s="63"/>
       <c r="F271" s="37" t="s">
         <v>8</v>
       </c>
@@ -66128,8 +66132,8 @@
       </c>
     </row>
     <row r="272" spans="4:84" ht="16">
-      <c r="D272" s="84"/>
-      <c r="E272" s="84"/>
+      <c r="D272" s="63"/>
+      <c r="E272" s="63"/>
       <c r="F272" s="37" t="s">
         <v>9</v>
       </c>
@@ -66369,8 +66373,8 @@
       </c>
     </row>
     <row r="273" spans="4:84" ht="16">
-      <c r="D273" s="84"/>
-      <c r="E273" s="84"/>
+      <c r="D273" s="63"/>
+      <c r="E273" s="63"/>
       <c r="F273" s="37" t="s">
         <v>10</v>
       </c>
@@ -66610,8 +66614,8 @@
       </c>
     </row>
     <row r="274" spans="4:84" ht="16">
-      <c r="D274" s="84"/>
-      <c r="E274" s="84"/>
+      <c r="D274" s="63"/>
+      <c r="E274" s="63"/>
       <c r="F274" s="37" t="s">
         <v>11</v>
       </c>
@@ -66851,8 +66855,8 @@
       </c>
     </row>
     <row r="275" spans="4:84" ht="16">
-      <c r="D275" s="84"/>
-      <c r="E275" s="84"/>
+      <c r="D275" s="63"/>
+      <c r="E275" s="63"/>
       <c r="F275" s="37" t="s">
         <v>12</v>
       </c>
@@ -67092,8 +67096,8 @@
       </c>
     </row>
     <row r="276" spans="4:84" ht="16">
-      <c r="D276" s="84"/>
-      <c r="E276" s="84"/>
+      <c r="D276" s="63"/>
+      <c r="E276" s="63"/>
       <c r="F276" s="37" t="s">
         <v>30</v>
       </c>
@@ -67333,8 +67337,8 @@
       </c>
     </row>
     <row r="277" spans="4:84" ht="16">
-      <c r="D277" s="84"/>
-      <c r="E277" s="84"/>
+      <c r="D277" s="63"/>
+      <c r="E277" s="63"/>
       <c r="F277" s="37" t="s">
         <v>31</v>
       </c>
@@ -67574,8 +67578,8 @@
       </c>
     </row>
     <row r="278" spans="4:84" ht="16">
-      <c r="D278" s="84"/>
-      <c r="E278" s="84"/>
+      <c r="D278" s="63"/>
+      <c r="E278" s="63"/>
       <c r="F278" s="37" t="s">
         <v>32</v>
       </c>
@@ -67815,8 +67819,8 @@
       </c>
     </row>
     <row r="279" spans="4:84" ht="16">
-      <c r="D279" s="84"/>
-      <c r="E279" s="84"/>
+      <c r="D279" s="63"/>
+      <c r="E279" s="63"/>
       <c r="F279" s="37" t="s">
         <v>13</v>
       </c>
@@ -68056,8 +68060,8 @@
       </c>
     </row>
     <row r="280" spans="4:84" ht="16">
-      <c r="D280" s="84"/>
-      <c r="E280" s="84"/>
+      <c r="D280" s="63"/>
+      <c r="E280" s="63"/>
       <c r="F280" s="37" t="s">
         <v>14</v>
       </c>
@@ -68297,8 +68301,8 @@
       </c>
     </row>
     <row r="281" spans="4:84" ht="16">
-      <c r="D281" s="84"/>
-      <c r="E281" s="84"/>
+      <c r="D281" s="63"/>
+      <c r="E281" s="63"/>
       <c r="F281" s="37" t="s">
         <v>15</v>
       </c>
@@ -68538,8 +68542,8 @@
       </c>
     </row>
     <row r="282" spans="4:84" ht="16">
-      <c r="D282" s="84"/>
-      <c r="E282" s="84"/>
+      <c r="D282" s="63"/>
+      <c r="E282" s="63"/>
       <c r="F282" s="37" t="s">
         <v>16</v>
       </c>
@@ -68779,8 +68783,8 @@
       </c>
     </row>
     <row r="283" spans="4:84" ht="16">
-      <c r="D283" s="84"/>
-      <c r="E283" s="84"/>
+      <c r="D283" s="63"/>
+      <c r="E283" s="63"/>
       <c r="F283" s="37" t="s">
         <v>33</v>
       </c>
@@ -69020,8 +69024,8 @@
       </c>
     </row>
     <row r="284" spans="4:84" ht="16">
-      <c r="D284" s="84"/>
-      <c r="E284" s="84"/>
+      <c r="D284" s="63"/>
+      <c r="E284" s="63"/>
       <c r="F284" s="37" t="s">
         <v>34</v>
       </c>
@@ -69261,8 +69265,8 @@
       </c>
     </row>
     <row r="285" spans="4:84" ht="16">
-      <c r="D285" s="84"/>
-      <c r="E285" s="84"/>
+      <c r="D285" s="63"/>
+      <c r="E285" s="63"/>
       <c r="F285" s="37" t="s">
         <v>35</v>
       </c>
@@ -69502,8 +69506,8 @@
       </c>
     </row>
     <row r="286" spans="4:84" ht="17" thickBot="1">
-      <c r="D286" s="85"/>
-      <c r="E286" s="85"/>
+      <c r="D286" s="64"/>
+      <c r="E286" s="64"/>
       <c r="F286" s="41" t="s">
         <v>36</v>
       </c>
@@ -69743,10 +69747,12 @@
       </c>
     </row>
     <row r="287" spans="4:84">
-      <c r="D287" s="83">
-        <v>5</v>
-      </c>
-      <c r="E287" s="83"/>
+      <c r="D287" s="62">
+        <v>5</v>
+      </c>
+      <c r="E287" s="62" t="s">
+        <v>0</v>
+      </c>
       <c r="F287" s="45">
         <v>1.1000000000000001</v>
       </c>
@@ -69986,8 +69992,8 @@
       </c>
     </row>
     <row r="288" spans="4:84">
-      <c r="D288" s="84"/>
-      <c r="E288" s="84"/>
+      <c r="D288" s="63"/>
+      <c r="E288" s="63"/>
       <c r="F288" s="37">
         <v>1.2</v>
       </c>
@@ -70227,8 +70233,8 @@
       </c>
     </row>
     <row r="289" spans="4:84">
-      <c r="D289" s="84"/>
-      <c r="E289" s="84"/>
+      <c r="D289" s="63"/>
+      <c r="E289" s="63"/>
       <c r="F289" s="37">
         <v>1.3</v>
       </c>
@@ -70468,8 +70474,8 @@
       </c>
     </row>
     <row r="290" spans="4:84">
-      <c r="D290" s="84"/>
-      <c r="E290" s="84"/>
+      <c r="D290" s="63"/>
+      <c r="E290" s="63"/>
       <c r="F290" s="37">
         <v>1.4</v>
       </c>
@@ -70709,8 +70715,8 @@
       </c>
     </row>
     <row r="291" spans="4:84">
-      <c r="D291" s="84"/>
-      <c r="E291" s="84"/>
+      <c r="D291" s="63"/>
+      <c r="E291" s="63"/>
       <c r="F291" s="37">
         <v>2.1</v>
       </c>
@@ -70950,8 +70956,8 @@
       </c>
     </row>
     <row r="292" spans="4:84">
-      <c r="D292" s="84"/>
-      <c r="E292" s="84"/>
+      <c r="D292" s="63"/>
+      <c r="E292" s="63"/>
       <c r="F292" s="37">
         <v>2.2000000000000002</v>
       </c>
@@ -71191,8 +71197,8 @@
       </c>
     </row>
     <row r="293" spans="4:84">
-      <c r="D293" s="84"/>
-      <c r="E293" s="84"/>
+      <c r="D293" s="63"/>
+      <c r="E293" s="63"/>
       <c r="F293" s="37">
         <v>3.1</v>
       </c>
@@ -71432,8 +71438,8 @@
       </c>
     </row>
     <row r="294" spans="4:84">
-      <c r="D294" s="84"/>
-      <c r="E294" s="84"/>
+      <c r="D294" s="63"/>
+      <c r="E294" s="63"/>
       <c r="F294" s="37">
         <v>3.2</v>
       </c>
@@ -71673,8 +71679,8 @@
       </c>
     </row>
     <row r="295" spans="4:84">
-      <c r="D295" s="84"/>
-      <c r="E295" s="84"/>
+      <c r="D295" s="63"/>
+      <c r="E295" s="63"/>
       <c r="F295" s="37">
         <v>4.0999999999999996</v>
       </c>
@@ -71914,8 +71920,8 @@
       </c>
     </row>
     <row r="296" spans="4:84">
-      <c r="D296" s="84"/>
-      <c r="E296" s="84"/>
+      <c r="D296" s="63"/>
+      <c r="E296" s="63"/>
       <c r="F296" s="37">
         <v>4.2</v>
       </c>
@@ -72155,8 +72161,8 @@
       </c>
     </row>
     <row r="297" spans="4:84">
-      <c r="D297" s="84"/>
-      <c r="E297" s="84"/>
+      <c r="D297" s="63"/>
+      <c r="E297" s="63"/>
       <c r="F297" s="37">
         <v>4.3</v>
       </c>
@@ -72396,8 +72402,8 @@
       </c>
     </row>
     <row r="298" spans="4:84">
-      <c r="D298" s="84"/>
-      <c r="E298" s="84"/>
+      <c r="D298" s="63"/>
+      <c r="E298" s="63"/>
       <c r="F298" s="37">
         <v>4.4000000000000004</v>
       </c>
@@ -72637,8 +72643,8 @@
       </c>
     </row>
     <row r="299" spans="4:84">
-      <c r="D299" s="84"/>
-      <c r="E299" s="84"/>
+      <c r="D299" s="63"/>
+      <c r="E299" s="63"/>
       <c r="F299" s="37">
         <v>5.0999999999999996</v>
       </c>
@@ -72878,8 +72884,8 @@
       </c>
     </row>
     <row r="300" spans="4:84">
-      <c r="D300" s="84"/>
-      <c r="E300" s="84"/>
+      <c r="D300" s="63"/>
+      <c r="E300" s="63"/>
       <c r="F300" s="37">
         <v>6.1</v>
       </c>
@@ -73119,8 +73125,8 @@
       </c>
     </row>
     <row r="301" spans="4:84">
-      <c r="D301" s="84"/>
-      <c r="E301" s="84"/>
+      <c r="D301" s="63"/>
+      <c r="E301" s="63"/>
       <c r="F301" s="37">
         <v>6.2</v>
       </c>
@@ -73360,8 +73366,8 @@
       </c>
     </row>
     <row r="302" spans="4:84">
-      <c r="D302" s="84"/>
-      <c r="E302" s="84"/>
+      <c r="D302" s="63"/>
+      <c r="E302" s="63"/>
       <c r="F302" s="37">
         <v>6.3</v>
       </c>
@@ -73601,8 +73607,8 @@
       </c>
     </row>
     <row r="303" spans="4:84">
-      <c r="D303" s="84"/>
-      <c r="E303" s="84"/>
+      <c r="D303" s="63"/>
+      <c r="E303" s="63"/>
       <c r="F303" s="37">
         <v>6.4</v>
       </c>
@@ -73842,8 +73848,8 @@
       </c>
     </row>
     <row r="304" spans="4:84">
-      <c r="D304" s="84"/>
-      <c r="E304" s="84"/>
+      <c r="D304" s="63"/>
+      <c r="E304" s="63"/>
       <c r="F304" s="37">
         <v>6.5</v>
       </c>
@@ -74083,8 +74089,8 @@
       </c>
     </row>
     <row r="305" spans="4:84">
-      <c r="D305" s="84"/>
-      <c r="E305" s="84"/>
+      <c r="D305" s="63"/>
+      <c r="E305" s="63"/>
       <c r="F305" s="37">
         <v>6.6</v>
       </c>
@@ -74324,8 +74330,8 @@
       </c>
     </row>
     <row r="306" spans="4:84">
-      <c r="D306" s="84"/>
-      <c r="E306" s="84"/>
+      <c r="D306" s="63"/>
+      <c r="E306" s="63"/>
       <c r="F306" s="37">
         <v>7.1</v>
       </c>
@@ -74565,8 +74571,8 @@
       </c>
     </row>
     <row r="307" spans="4:84">
-      <c r="D307" s="84"/>
-      <c r="E307" s="84"/>
+      <c r="D307" s="63"/>
+      <c r="E307" s="63"/>
       <c r="F307" s="37">
         <v>7.2</v>
       </c>
@@ -74806,8 +74812,8 @@
       </c>
     </row>
     <row r="308" spans="4:84">
-      <c r="D308" s="84"/>
-      <c r="E308" s="84"/>
+      <c r="D308" s="63"/>
+      <c r="E308" s="63"/>
       <c r="F308" s="37">
         <v>8.1</v>
       </c>
@@ -75047,8 +75053,8 @@
       </c>
     </row>
     <row r="309" spans="4:84">
-      <c r="D309" s="84"/>
-      <c r="E309" s="84"/>
+      <c r="D309" s="63"/>
+      <c r="E309" s="63"/>
       <c r="F309" s="37">
         <v>8.1999999999999993</v>
       </c>
@@ -75288,8 +75294,8 @@
       </c>
     </row>
     <row r="310" spans="4:84">
-      <c r="D310" s="84"/>
-      <c r="E310" s="84"/>
+      <c r="D310" s="63"/>
+      <c r="E310" s="63"/>
       <c r="F310" s="37">
         <v>8.3000000000000007</v>
       </c>
@@ -75529,8 +75535,8 @@
       </c>
     </row>
     <row r="311" spans="4:84">
-      <c r="D311" s="84"/>
-      <c r="E311" s="84"/>
+      <c r="D311" s="63"/>
+      <c r="E311" s="63"/>
       <c r="F311" s="37">
         <v>8.4</v>
       </c>
@@ -75770,8 +75776,8 @@
       </c>
     </row>
     <row r="312" spans="4:84">
-      <c r="D312" s="84"/>
-      <c r="E312" s="84"/>
+      <c r="D312" s="63"/>
+      <c r="E312" s="63"/>
       <c r="F312" s="37">
         <v>8.5</v>
       </c>
@@ -76011,8 +76017,8 @@
       </c>
     </row>
     <row r="313" spans="4:84">
-      <c r="D313" s="84"/>
-      <c r="E313" s="84"/>
+      <c r="D313" s="63"/>
+      <c r="E313" s="63"/>
       <c r="F313" s="37">
         <v>8.6</v>
       </c>
@@ -76252,8 +76258,8 @@
       </c>
     </row>
     <row r="314" spans="4:84">
-      <c r="D314" s="84"/>
-      <c r="E314" s="84"/>
+      <c r="D314" s="63"/>
+      <c r="E314" s="63"/>
       <c r="F314" s="37">
         <v>9.1</v>
       </c>
@@ -76493,8 +76499,8 @@
       </c>
     </row>
     <row r="315" spans="4:84">
-      <c r="D315" s="84"/>
-      <c r="E315" s="84"/>
+      <c r="D315" s="63"/>
+      <c r="E315" s="63"/>
       <c r="F315" s="37">
         <v>10.1</v>
       </c>
@@ -76734,8 +76740,8 @@
       </c>
     </row>
     <row r="316" spans="4:84">
-      <c r="D316" s="84"/>
-      <c r="E316" s="84"/>
+      <c r="D316" s="63"/>
+      <c r="E316" s="63"/>
       <c r="F316" s="37">
         <v>10.199999999999999</v>
       </c>
@@ -76975,8 +76981,8 @@
       </c>
     </row>
     <row r="317" spans="4:84">
-      <c r="D317" s="84"/>
-      <c r="E317" s="84"/>
+      <c r="D317" s="63"/>
+      <c r="E317" s="63"/>
       <c r="F317" s="37">
         <v>10.3</v>
       </c>
@@ -77216,8 +77222,8 @@
       </c>
     </row>
     <row r="318" spans="4:84">
-      <c r="D318" s="84"/>
-      <c r="E318" s="84"/>
+      <c r="D318" s="63"/>
+      <c r="E318" s="63"/>
       <c r="F318" s="37">
         <v>10.4</v>
       </c>
@@ -77457,8 +77463,8 @@
       </c>
     </row>
     <row r="319" spans="4:84">
-      <c r="D319" s="84"/>
-      <c r="E319" s="84"/>
+      <c r="D319" s="63"/>
+      <c r="E319" s="63"/>
       <c r="F319" s="37">
         <v>11.1</v>
       </c>
@@ -77698,8 +77704,8 @@
       </c>
     </row>
     <row r="320" spans="4:84">
-      <c r="D320" s="84"/>
-      <c r="E320" s="84"/>
+      <c r="D320" s="63"/>
+      <c r="E320" s="63"/>
       <c r="F320" s="37">
         <v>11.2</v>
       </c>
@@ -77939,8 +77945,8 @@
       </c>
     </row>
     <row r="321" spans="4:84">
-      <c r="D321" s="84"/>
-      <c r="E321" s="84"/>
+      <c r="D321" s="63"/>
+      <c r="E321" s="63"/>
       <c r="F321" s="37">
         <v>12.1</v>
       </c>
@@ -78180,8 +78186,8 @@
       </c>
     </row>
     <row r="322" spans="4:84">
-      <c r="D322" s="84"/>
-      <c r="E322" s="84"/>
+      <c r="D322" s="63"/>
+      <c r="E322" s="63"/>
       <c r="F322" s="37">
         <v>12.2</v>
       </c>
@@ -78421,8 +78427,8 @@
       </c>
     </row>
     <row r="323" spans="4:84">
-      <c r="D323" s="84"/>
-      <c r="E323" s="84"/>
+      <c r="D323" s="63"/>
+      <c r="E323" s="63"/>
       <c r="F323" s="37">
         <v>13.1</v>
       </c>
@@ -78662,8 +78668,8 @@
       </c>
     </row>
     <row r="324" spans="4:84">
-      <c r="D324" s="84"/>
-      <c r="E324" s="84"/>
+      <c r="D324" s="63"/>
+      <c r="E324" s="63"/>
       <c r="F324" s="37">
         <v>13.2</v>
       </c>
@@ -78903,8 +78909,8 @@
       </c>
     </row>
     <row r="325" spans="4:84">
-      <c r="D325" s="84"/>
-      <c r="E325" s="84"/>
+      <c r="D325" s="63"/>
+      <c r="E325" s="63"/>
       <c r="F325" s="37">
         <v>13.3</v>
       </c>
@@ -79144,8 +79150,8 @@
       </c>
     </row>
     <row r="326" spans="4:84" ht="16" thickBot="1">
-      <c r="D326" s="84"/>
-      <c r="E326" s="85"/>
+      <c r="D326" s="63"/>
+      <c r="E326" s="64"/>
       <c r="F326" s="41">
         <v>13.4</v>
       </c>
@@ -79385,8 +79391,10 @@
       </c>
     </row>
     <row r="327" spans="4:84" ht="16">
-      <c r="D327" s="84"/>
-      <c r="E327" s="83"/>
+      <c r="D327" s="63"/>
+      <c r="E327" s="62" t="s">
+        <v>1</v>
+      </c>
       <c r="F327" s="45" t="s">
         <v>2</v>
       </c>
@@ -79626,8 +79634,8 @@
       </c>
     </row>
     <row r="328" spans="4:84" ht="16">
-      <c r="D328" s="84"/>
-      <c r="E328" s="84"/>
+      <c r="D328" s="63"/>
+      <c r="E328" s="63"/>
       <c r="F328" s="37" t="s">
         <v>3</v>
       </c>
@@ -79867,8 +79875,8 @@
       </c>
     </row>
     <row r="329" spans="4:84" ht="16">
-      <c r="D329" s="84"/>
-      <c r="E329" s="84"/>
+      <c r="D329" s="63"/>
+      <c r="E329" s="63"/>
       <c r="F329" s="37" t="s">
         <v>24</v>
       </c>
@@ -80108,8 +80116,8 @@
       </c>
     </row>
     <row r="330" spans="4:84" ht="16">
-      <c r="D330" s="84"/>
-      <c r="E330" s="84"/>
+      <c r="D330" s="63"/>
+      <c r="E330" s="63"/>
       <c r="F330" s="37" t="s">
         <v>25</v>
       </c>
@@ -80349,8 +80357,8 @@
       </c>
     </row>
     <row r="331" spans="4:84" ht="16">
-      <c r="D331" s="84"/>
-      <c r="E331" s="84"/>
+      <c r="D331" s="63"/>
+      <c r="E331" s="63"/>
       <c r="F331" s="37" t="s">
         <v>26</v>
       </c>
@@ -80590,8 +80598,8 @@
       </c>
     </row>
     <row r="332" spans="4:84" ht="16">
-      <c r="D332" s="84"/>
-      <c r="E332" s="84"/>
+      <c r="D332" s="63"/>
+      <c r="E332" s="63"/>
       <c r="F332" s="37" t="s">
         <v>27</v>
       </c>
@@ -80831,8 +80839,8 @@
       </c>
     </row>
     <row r="333" spans="4:84" ht="16">
-      <c r="D333" s="84"/>
-      <c r="E333" s="84"/>
+      <c r="D333" s="63"/>
+      <c r="E333" s="63"/>
       <c r="F333" s="37" t="s">
         <v>4</v>
       </c>
@@ -81072,8 +81080,8 @@
       </c>
     </row>
     <row r="334" spans="4:84" ht="16">
-      <c r="D334" s="84"/>
-      <c r="E334" s="84"/>
+      <c r="D334" s="63"/>
+      <c r="E334" s="63"/>
       <c r="F334" s="37" t="s">
         <v>5</v>
       </c>
@@ -81313,8 +81321,8 @@
       </c>
     </row>
     <row r="335" spans="4:84" ht="16">
-      <c r="D335" s="84"/>
-      <c r="E335" s="84"/>
+      <c r="D335" s="63"/>
+      <c r="E335" s="63"/>
       <c r="F335" s="37" t="s">
         <v>6</v>
       </c>
@@ -81554,8 +81562,8 @@
       </c>
     </row>
     <row r="336" spans="4:84" ht="16">
-      <c r="D336" s="84"/>
-      <c r="E336" s="84"/>
+      <c r="D336" s="63"/>
+      <c r="E336" s="63"/>
       <c r="F336" s="37" t="s">
         <v>7</v>
       </c>
@@ -81795,8 +81803,8 @@
       </c>
     </row>
     <row r="337" spans="4:84" ht="16">
-      <c r="D337" s="84"/>
-      <c r="E337" s="84"/>
+      <c r="D337" s="63"/>
+      <c r="E337" s="63"/>
       <c r="F337" s="37" t="s">
         <v>28</v>
       </c>
@@ -82036,8 +82044,8 @@
       </c>
     </row>
     <row r="338" spans="4:84" ht="16">
-      <c r="D338" s="84"/>
-      <c r="E338" s="84"/>
+      <c r="D338" s="63"/>
+      <c r="E338" s="63"/>
       <c r="F338" s="37" t="s">
         <v>29</v>
       </c>
@@ -82277,8 +82285,8 @@
       </c>
     </row>
     <row r="339" spans="4:84" ht="16">
-      <c r="D339" s="84"/>
-      <c r="E339" s="84"/>
+      <c r="D339" s="63"/>
+      <c r="E339" s="63"/>
       <c r="F339" s="37" t="s">
         <v>8</v>
       </c>
@@ -82518,8 +82526,8 @@
       </c>
     </row>
     <row r="340" spans="4:84" ht="16">
-      <c r="D340" s="84"/>
-      <c r="E340" s="84"/>
+      <c r="D340" s="63"/>
+      <c r="E340" s="63"/>
       <c r="F340" s="37" t="s">
         <v>9</v>
       </c>
@@ -82759,8 +82767,8 @@
       </c>
     </row>
     <row r="341" spans="4:84" ht="16">
-      <c r="D341" s="84"/>
-      <c r="E341" s="84"/>
+      <c r="D341" s="63"/>
+      <c r="E341" s="63"/>
       <c r="F341" s="37" t="s">
         <v>10</v>
       </c>
@@ -83000,8 +83008,8 @@
       </c>
     </row>
     <row r="342" spans="4:84" ht="16">
-      <c r="D342" s="84"/>
-      <c r="E342" s="84"/>
+      <c r="D342" s="63"/>
+      <c r="E342" s="63"/>
       <c r="F342" s="37" t="s">
         <v>11</v>
       </c>
@@ -83241,8 +83249,8 @@
       </c>
     </row>
     <row r="343" spans="4:84" ht="16">
-      <c r="D343" s="84"/>
-      <c r="E343" s="84"/>
+      <c r="D343" s="63"/>
+      <c r="E343" s="63"/>
       <c r="F343" s="37" t="s">
         <v>12</v>
       </c>
@@ -83482,8 +83490,8 @@
       </c>
     </row>
     <row r="344" spans="4:84" ht="16">
-      <c r="D344" s="84"/>
-      <c r="E344" s="84"/>
+      <c r="D344" s="63"/>
+      <c r="E344" s="63"/>
       <c r="F344" s="37" t="s">
         <v>30</v>
       </c>
@@ -83723,8 +83731,8 @@
       </c>
     </row>
     <row r="345" spans="4:84" ht="16">
-      <c r="D345" s="84"/>
-      <c r="E345" s="84"/>
+      <c r="D345" s="63"/>
+      <c r="E345" s="63"/>
       <c r="F345" s="37" t="s">
         <v>31</v>
       </c>
@@ -83964,8 +83972,8 @@
       </c>
     </row>
     <row r="346" spans="4:84" ht="16">
-      <c r="D346" s="84"/>
-      <c r="E346" s="84"/>
+      <c r="D346" s="63"/>
+      <c r="E346" s="63"/>
       <c r="F346" s="37" t="s">
         <v>32</v>
       </c>
@@ -84205,8 +84213,8 @@
       </c>
     </row>
     <row r="347" spans="4:84" ht="16">
-      <c r="D347" s="84"/>
-      <c r="E347" s="84"/>
+      <c r="D347" s="63"/>
+      <c r="E347" s="63"/>
       <c r="F347" s="37" t="s">
         <v>13</v>
       </c>
@@ -84446,8 +84454,8 @@
       </c>
     </row>
     <row r="348" spans="4:84" ht="16">
-      <c r="D348" s="84"/>
-      <c r="E348" s="84"/>
+      <c r="D348" s="63"/>
+      <c r="E348" s="63"/>
       <c r="F348" s="37" t="s">
         <v>14</v>
       </c>
@@ -84687,8 +84695,8 @@
       </c>
     </row>
     <row r="349" spans="4:84" ht="16">
-      <c r="D349" s="84"/>
-      <c r="E349" s="84"/>
+      <c r="D349" s="63"/>
+      <c r="E349" s="63"/>
       <c r="F349" s="37" t="s">
         <v>15</v>
       </c>
@@ -84928,8 +84936,8 @@
       </c>
     </row>
     <row r="350" spans="4:84" ht="16">
-      <c r="D350" s="84"/>
-      <c r="E350" s="84"/>
+      <c r="D350" s="63"/>
+      <c r="E350" s="63"/>
       <c r="F350" s="37" t="s">
         <v>16</v>
       </c>
@@ -85169,8 +85177,8 @@
       </c>
     </row>
     <row r="351" spans="4:84" ht="16">
-      <c r="D351" s="84"/>
-      <c r="E351" s="84"/>
+      <c r="D351" s="63"/>
+      <c r="E351" s="63"/>
       <c r="F351" s="37" t="s">
         <v>33</v>
       </c>
@@ -85410,8 +85418,8 @@
       </c>
     </row>
     <row r="352" spans="4:84" ht="16">
-      <c r="D352" s="84"/>
-      <c r="E352" s="84"/>
+      <c r="D352" s="63"/>
+      <c r="E352" s="63"/>
       <c r="F352" s="37" t="s">
         <v>34</v>
       </c>
@@ -85651,8 +85659,8 @@
       </c>
     </row>
     <row r="353" spans="4:84" ht="16">
-      <c r="D353" s="84"/>
-      <c r="E353" s="84"/>
+      <c r="D353" s="63"/>
+      <c r="E353" s="63"/>
       <c r="F353" s="37" t="s">
         <v>35</v>
       </c>
@@ -85892,8 +85900,8 @@
       </c>
     </row>
     <row r="354" spans="4:84" ht="17" thickBot="1">
-      <c r="D354" s="85"/>
-      <c r="E354" s="85"/>
+      <c r="D354" s="64"/>
+      <c r="E354" s="64"/>
       <c r="F354" s="41" t="s">
         <v>36</v>
       </c>
@@ -86134,84 +86142,6 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="D287:D354"/>
-    <mergeCell ref="E287:E326"/>
-    <mergeCell ref="E327:E354"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="D219:D286"/>
-    <mergeCell ref="E219:E258"/>
-    <mergeCell ref="E259:E286"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="D151:D218"/>
-    <mergeCell ref="E151:E190"/>
-    <mergeCell ref="E191:E218"/>
-    <mergeCell ref="D15:D82"/>
-    <mergeCell ref="E15:E54"/>
-    <mergeCell ref="E55:E82"/>
-    <mergeCell ref="D83:D150"/>
-    <mergeCell ref="E83:E122"/>
-    <mergeCell ref="E123:E150"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="CB3:CF3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AU4"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AZ4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="BH4:BJ4"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BO4"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CD4"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BR4:BT4"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BY4"/>
-    <mergeCell ref="CB1:CF2"/>
-    <mergeCell ref="AI1:AM2"/>
-    <mergeCell ref="AN1:AR2"/>
-    <mergeCell ref="AS1:AW2"/>
-    <mergeCell ref="AX1:BB2"/>
-    <mergeCell ref="BC1:BG2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="BH1:BL2"/>
     <mergeCell ref="BM1:BQ2"/>
@@ -86225,6 +86155,84 @@
     <mergeCell ref="BM3:BQ3"/>
     <mergeCell ref="BR3:BV3"/>
     <mergeCell ref="BW3:CA3"/>
+    <mergeCell ref="CB1:CF2"/>
+    <mergeCell ref="AI1:AM2"/>
+    <mergeCell ref="AN1:AR2"/>
+    <mergeCell ref="AS1:AW2"/>
+    <mergeCell ref="AX1:BB2"/>
+    <mergeCell ref="BC1:BG2"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BR4:BT4"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BY4"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CD4"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BJ4"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BO4"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AU4"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="CB3:CF3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="D151:D218"/>
+    <mergeCell ref="E151:E190"/>
+    <mergeCell ref="E191:E218"/>
+    <mergeCell ref="D15:D82"/>
+    <mergeCell ref="E15:E54"/>
+    <mergeCell ref="E55:E82"/>
+    <mergeCell ref="D83:D150"/>
+    <mergeCell ref="E83:E122"/>
+    <mergeCell ref="E123:E150"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D287:D354"/>
+    <mergeCell ref="E287:E326"/>
+    <mergeCell ref="E327:E354"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="D219:D286"/>
+    <mergeCell ref="E219:E258"/>
+    <mergeCell ref="E259:E286"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
